--- a/Data/all_aggregate_fits.xlsx
+++ b/Data/all_aggregate_fits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidjcox/Dropbox (Personal)/Projects/CurrentProjectManuscripts/Empirical/PersonalFun/Demand for Certification/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78AB8778-947B-F440-B691-4BDACA502461}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478F9919-8645-274E-984A-C27DEC2EF661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3600" yWindow="13520" windowWidth="56640" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7240" yWindow="3200" windowWidth="51420" windowHeight="29920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_aggregates" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,18 @@
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">all_aggregates!$AK$21</definedName>
+    <definedName name="solver_lhs10" localSheetId="0" hidden="1">all_aggregates!$AK$9</definedName>
+    <definedName name="solver_lhs11" localSheetId="0" hidden="1">all_aggregates!$AK$26</definedName>
+    <definedName name="solver_lhs12" localSheetId="0" hidden="1">all_aggregates!$AK$9</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">all_aggregates!$AK$22</definedName>
+    <definedName name="solver_lhs3" localSheetId="0" hidden="1">all_aggregates!$AK$23</definedName>
+    <definedName name="solver_lhs4" localSheetId="0" hidden="1">all_aggregates!$AK$24</definedName>
+    <definedName name="solver_lhs5" localSheetId="0" hidden="1">all_aggregates!$AK$25</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">all_aggregates!$AK$26</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">all_aggregates!$AK$24</definedName>
+    <definedName name="solver_lhs8" localSheetId="0" hidden="1">all_aggregates!$AK$25</definedName>
+    <definedName name="solver_lhs9" localSheetId="0" hidden="1">all_aggregates!$AK$26</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -28,10 +40,34 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">6</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">all_aggregates!$AN$26</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel10" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel11" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel12" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel8" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel9" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_rhs10" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_rhs11" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_rhs12" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_rhs3" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_rhs4" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_rhs5" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_rhs8" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_rhs9" localSheetId="0" hidden="1">100</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
@@ -166,24 +202,6 @@
     <t>impute_type</t>
   </si>
   <si>
-    <t>median</t>
-  </si>
-  <si>
-    <t>knn</t>
-  </si>
-  <si>
-    <t>med</t>
-  </si>
-  <si>
-    <t>avg</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
     <t>obs_pred</t>
   </si>
   <si>
@@ -214,10 +232,28 @@
     <t>k</t>
   </si>
   <si>
-    <t>none_all_data</t>
+    <t xml:space="preserve">agg=median; </t>
   </si>
   <si>
-    <t>none_complete_data</t>
+    <t xml:space="preserve">agg=mean; </t>
+  </si>
+  <si>
+    <t>impute=none_all_data;</t>
+  </si>
+  <si>
+    <t>impute=none_complete_data</t>
+  </si>
+  <si>
+    <t>impute=knn</t>
+  </si>
+  <si>
+    <t>impute=med</t>
+  </si>
+  <si>
+    <t>impute=avg</t>
+  </si>
+  <si>
+    <t>impute=mode</t>
   </si>
 </sst>
 </file>
@@ -801,6 +837,35 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Median Aggregation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -837,10 +902,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="4.3483824458445605E-2"/>
+          <c:x val="0.1155837170929121"/>
           <c:y val="6.8485478748977535E-2"/>
-          <c:w val="0.92533340711353906"/>
-          <c:h val="0.69925456007499509"/>
+          <c:w val="0.85540013489935651"/>
+          <c:h val="0.80321609798775151"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -851,17 +916,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_aggregates!$A$3:$C$3</c:f>
+              <c:f>all_aggregates!$C$3</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>none_all_data</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>observed</c:v>
+                  <c:v>impute=none_all_data;</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -875,14 +934,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="12"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1116,17 +1175,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_aggregates!$A$4:$C$4</c:f>
+              <c:f>all_aggregates!$C$4</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>none_complete_data</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>observed</c:v>
+                  <c:v>impute=none_complete_data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1139,15 +1192,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1381,17 +1434,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_aggregates!$A$5:$C$5</c:f>
+              <c:f>all_aggregates!$C$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>knn</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>observed</c:v>
+                  <c:v>impute=knn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1404,15 +1451,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="11"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1646,17 +1693,11 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_aggregates!$A$6:$C$6</c:f>
+              <c:f>all_aggregates!$C$6</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>med</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>observed</c:v>
+                  <c:v>impute=med</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1670,14 +1711,14 @@
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="8"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1911,17 +1952,11 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_aggregates!$A$7:$C$7</c:f>
+              <c:f>all_aggregates!$C$7</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>avg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>observed</c:v>
+                  <c:v>impute=avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1934,15 +1969,17 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="46000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2176,17 +2213,11 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_aggregates!$A$8:$C$8</c:f>
+              <c:f>all_aggregates!$C$8</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mode</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>observed</c:v>
+                  <c:v>impute=mode</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2199,19 +2230,15 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="bg1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2445,46 +2472,26 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_aggregates!$A$9:$C$9</c:f>
+              <c:f>all_aggregates!$C$9</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>none_all_data</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>predicted</c:v>
+                  <c:v>impute=none_all_data;</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2601,108 +2608,108 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>99.906757775380285</c:v>
+                  <c:v>99.904834895174361</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.700371111597207</c:v>
+                  <c:v>97.653601849776607</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.464844614338659</c:v>
+                  <c:v>95.373934415680651</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.178004448682742</c:v>
+                  <c:v>91.006196969030356</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.288409442527339</c:v>
+                  <c:v>82.981164513402419</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.219715696928063</c:v>
+                  <c:v>75.806864911397014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.875116066693408</c:v>
+                  <c:v>69.381104471369156</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.170397588332065</c:v>
+                  <c:v>63.615229334801718</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.032164422165643</c:v>
+                  <c:v>58.43218016100392</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.396329566472744</c:v>
+                  <c:v>53.76484634220774</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.206832149208637</c:v>
+                  <c:v>49.554670750800454</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.414544429425519</c:v>
+                  <c:v>45.75046447868376</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.976338662545047</c:v>
+                  <c:v>42.307397954503415</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.854288943880348</c:v>
+                  <c:v>39.186140507892873</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.014987238988354</c:v>
+                  <c:v>36.352125123884385</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.428956195703414</c:v>
+                  <c:v>33.774918982720429</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.070144139117332</c:v>
+                  <c:v>31.427683561645704</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.915489981240231</c:v>
+                  <c:v>29.286710708082929</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.944547716107401</c:v>
+                  <c:v>27.331023276896953</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.139161787538516</c:v>
+                  <c:v>25.542030738596988</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.483185966833851</c:v>
+                  <c:v>23.903231675699306</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.962239507400398</c:v>
+                  <c:v>22.399956344371368</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.563495290348605</c:v>
+                  <c:v>21.019143531442364</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.275495470455756</c:v>
+                  <c:v>19.749146818532886</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.087990801043883</c:v>
+                  <c:v>18.579566104657943</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.991800380279148</c:v>
+                  <c:v>17.501100860209622</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.978689037525331</c:v>
+                  <c:v>16.505422108507219</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.0412599810379</c:v>
+                  <c:v>15.58506057242405</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.172860669376661</c:v>
+                  <c:v>14.733308796446137</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.367500158331966</c:v>
+                  <c:v>13.944135370048871</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.619776421130478</c:v>
+                  <c:v>13.212109645754822</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.924812349067523</c:v>
+                  <c:v>12.532335572351579</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.278199318228278</c:v>
+                  <c:v>11.900393456908317</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000B-EDF1-8B4C-9D06-97FE90D5CE2C}"/>
@@ -2714,48 +2721,27 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_aggregates!$A$10:$C$10</c:f>
+              <c:f>all_aggregates!$C$10</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>none_complete_data</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>predicted</c:v>
+                  <c:v>impute=none_complete_data</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2872,108 +2858,108 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>99.906757775380285</c:v>
+                  <c:v>99.791436390877152</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.700371111597207</c:v>
+                  <c:v>94.941205573884275</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.464844614338659</c:v>
+                  <c:v>90.191088545647403</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.178004448682742</c:v>
+                  <c:v>81.532809419487734</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.288409442527339</c:v>
+                  <c:v>67.08042192652465</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.219715696928063</c:v>
+                  <c:v>55.669312768242172</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.875116066693408</c:v>
+                  <c:v>46.5828528163537</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.170397588332065</c:v>
+                  <c:v>39.28866631497484</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.032164422165643</c:v>
+                  <c:v>33.387766331725174</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.396329566472744</c:v>
+                  <c:v>28.578600231117601</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.206832149208637</c:v>
+                  <c:v>24.63140188939164</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.414544429425519</c:v>
+                  <c:v>21.369734898158192</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.976338662545047</c:v>
+                  <c:v>18.657097905129568</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.854288943880348</c:v>
+                  <c:v>16.387124281066942</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.014987238988354</c:v>
+                  <c:v>14.476355176964805</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.428956195703414</c:v>
+                  <c:v>12.858869831326873</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.070144139117332</c:v>
+                  <c:v>11.482266671650136</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.915489981240231</c:v>
+                  <c:v>10.30463420974796</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.944547716107401</c:v>
+                  <c:v>9.2922524446350927</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.139161787538516</c:v>
+                  <c:v>8.4178371674739711</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.483185966833851</c:v>
+                  <c:v>7.6591904590878475</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.962239507400398</c:v>
+                  <c:v>6.9981570718966992</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.563495290348605</c:v>
+                  <c:v>6.4198126062637613</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.275495470455756</c:v>
+                  <c:v>5.9118284036977444</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.087990801043883</c:v>
+                  <c:v>5.4639719575439747</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.991800380279148</c:v>
+                  <c:v>5.0677118369758025</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.978689037525331</c:v>
+                  <c:v>4.7159036560377041</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.0412599810379</c:v>
+                  <c:v>4.4025392232221066</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.172860669376661</c:v>
+                  <c:v>4.1225451982185763</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.367500158331966</c:v>
+                  <c:v>3.8716207347951253</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.619776421130478</c:v>
+                  <c:v>3.6461059726967671</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.924812349067523</c:v>
+                  <c:v>3.4428750538267217</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.278199318228278</c:v>
+                  <c:v>3.2592487229192044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000C-EDF1-8B4C-9D06-97FE90D5CE2C}"/>
@@ -2985,48 +2971,27 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_aggregates!$A$11:$C$11</c:f>
+              <c:f>all_aggregates!$C$11</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>knn</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>predicted</c:v>
+                  <c:v>impute=knn</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3143,108 +3108,108 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>99.906757775380285</c:v>
+                  <c:v>99.858724686362095</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.700371111597207</c:v>
+                  <c:v>96.539889250906342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.464844614338659</c:v>
+                  <c:v>93.224601066782185</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.178004448682742</c:v>
+                  <c:v>87.001203704911816</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.288409442527339</c:v>
+                  <c:v>76.011467929985571</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.219715696928063</c:v>
+                  <c:v>66.681641619715592</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.875116066693408</c:v>
+                  <c:v>58.729071052358449</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.170397588332065</c:v>
+                  <c:v>51.923943181587752</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.032164422165643</c:v>
+                  <c:v>46.078619613299246</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.396329566472744</c:v>
+                  <c:v>41.039268656869147</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.206832149208637</c:v>
+                  <c:v>36.679271406735012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.414544429425519</c:v>
+                  <c:v>32.894003462482551</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.976338662545047</c:v>
+                  <c:v>29.596688033747899</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.854288943880348</c:v>
+                  <c:v>26.715087032530509</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.014987238988354</c:v>
+                  <c:v>24.188850330377335</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.428956195703414</c:v>
+                  <c:v>21.967384045959811</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.070144139117332</c:v>
+                  <c:v>20.008129763511583</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.915489981240231</c:v>
+                  <c:v>18.275170354775423</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.944547716107401</c:v>
+                  <c:v>16.738096361412548</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.139161787538516</c:v>
+                  <c:v>15.371081014928215</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.483185966833851</c:v>
+                  <c:v>14.152122918459536</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.962239507400398</c:v>
+                  <c:v>13.06242393489824</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.563495290348605</c:v>
+                  <c:v>12.085876481888807</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.275495470455756</c:v>
+                  <c:v>11.208639653212291</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.087990801043883</c:v>
+                  <c:v>10.418787692938118</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.991800380279148</c:v>
+                  <c:v>9.7060175918381884</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.978689037525331</c:v>
+                  <c:v>9.0614051453803679</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.0412599810379</c:v>
+                  <c:v>8.4772008557747434</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.172860669376661</c:v>
+                  <c:v>7.9466586903123302</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.367500158331966</c:v>
+                  <c:v>7.4638920124316295</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.619776421130478</c:v>
+                  <c:v>7.0237520488933658</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.924812349067523</c:v>
+                  <c:v>6.6217250994652765</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.278199318228278</c:v>
+                  <c:v>6.2538453763798918</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-EDF1-8B4C-9D06-97FE90D5CE2C}"/>
@@ -3256,48 +3221,28 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_aggregates!$A$12:$C$12</c:f>
+              <c:f>all_aggregates!$C$12</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>med</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>predicted</c:v>
+                  <c:v>impute=med</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="80000"/>
-                    <a:lumOff val="20000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3414,108 +3359,108 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>99.906757775380285</c:v>
+                  <c:v>99.861960976815581</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.700371111597207</c:v>
+                  <c:v>96.617569813353271</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.464844614338659</c:v>
+                  <c:v>93.373551826978485</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.178004448682742</c:v>
+                  <c:v>87.275243081121431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.288409442527339</c:v>
+                  <c:v>76.476687228648615</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.219715696928063</c:v>
+                  <c:v>67.27634213888723</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.875116066693408</c:v>
+                  <c:v>59.407444839378321</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.170397588332065</c:v>
+                  <c:v>52.652130962005174</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.032164422165643</c:v>
+                  <c:v>46.83175389306907</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.396329566472744</c:v>
+                  <c:v>41.799250250235957</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.206832149208637</c:v>
+                  <c:v>37.433093767296072</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.414544429425519</c:v>
+                  <c:v>33.632487439506768</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.976338662545047</c:v>
+                  <c:v>30.313525017014886</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.854288943880348</c:v>
+                  <c:v>27.406114438824741</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.014987238988354</c:v>
+                  <c:v>24.851502569613736</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.428956195703414</c:v>
+                  <c:v>22.600276317875132</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.070144139117332</c:v>
+                  <c:v>20.61074260217632</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.915489981240231</c:v>
+                  <c:v>18.84761071983079</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.944547716107401</c:v>
+                  <c:v>17.280916972942684</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.139161787538516</c:v>
+                  <c:v>15.885144056065975</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.483185966833851</c:v>
+                  <c:v>14.638497562745394</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.962239507400398</c:v>
+                  <c:v>13.522309671551056</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.563495290348605</c:v>
+                  <c:v>12.520546116704773</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.275495470455756</c:v>
+                  <c:v>11.619397308043723</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.087990801043883</c:v>
+                  <c:v>10.806938225967599</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.991800380279148</c:v>
+                  <c:v>10.072844698806723</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.978689037525331</c:v>
+                  <c:v>9.4081560419648156</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.0412599810379</c:v>
+                  <c:v>8.8050759310850193</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.172860669376661</c:v>
+                  <c:v>8.256804896892417</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.367500158331966</c:v>
+                  <c:v>7.7573990463253883</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.619776421130478</c:v>
+                  <c:v>7.3016505948253227</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.924812349067523</c:v>
+                  <c:v>6.8849865865942554</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.278199318228278</c:v>
+                  <c:v>6.5033828212917664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000E-EDF1-8B4C-9D06-97FE90D5CE2C}"/>
@@ -3527,42 +3472,29 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_aggregates!$A$13:$C$13</c:f>
+              <c:f>all_aggregates!$C$13</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>avg</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>predicted</c:v>
+                  <c:v>impute=avg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3679,108 +3611,108 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>99.906757775380285</c:v>
+                  <c:v>99.92496183235977</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.700371111597207</c:v>
+                  <c:v>98.144844991722579</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.464844614338659</c:v>
+                  <c:v>96.331457267805646</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.178004448682742</c:v>
+                  <c:v>92.825665398776948</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.288409442527339</c:v>
+                  <c:v>86.269819936095985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.219715696928063</c:v>
+                  <c:v>80.271972882095639</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.875116066693408</c:v>
+                  <c:v>74.778180604136821</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.170397588332065</c:v>
+                  <c:v>69.740263681990541</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.032164422165643</c:v>
+                  <c:v>65.115137643060208</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.396329566472744</c:v>
+                  <c:v>60.864227132838231</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.206832149208637</c:v>
+                  <c:v>56.952952450117401</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.414544429425519</c:v>
+                  <c:v>53.350278929164794</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.976338662545047</c:v>
+                  <c:v>50.028320974807819</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.854288943880348</c:v>
+                  <c:v>46.96199368651012</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.014987238988354</c:v>
+                  <c:v>44.128705973677775</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.428956195703414</c:v>
+                  <c:v>41.508089891543065</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.070144139117332</c:v>
+                  <c:v>39.081761635988634</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.915489981240231</c:v>
+                  <c:v>36.833110244263992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.944547716107401</c:v>
+                  <c:v>34.747110571617462</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.139161787538516</c:v>
+                  <c:v>32.810157564015988</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.483185966833851</c:v>
+                  <c:v>31.009919235014266</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.962239507400398</c:v>
+                  <c:v>29.335206089493216</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.563495290348605</c:v>
+                  <c:v>27.775855026081942</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.275495470455756</c:v>
+                  <c:v>26.322626000114983</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.087990801043883</c:v>
+                  <c:v>24.967109945498407</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.991800380279148</c:v>
+                  <c:v>23.70164664157971</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.978689037525331</c:v>
+                  <c:v>22.5192513740617</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.0412599810379</c:v>
+                  <c:v>21.4135493806039</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.172860669376661</c:v>
+                  <c:v>20.37871719495466</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.367500158331966</c:v>
+                  <c:v>19.409430110766106</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.619776421130478</c:v>
+                  <c:v>18.50081507981756</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.924812349067523</c:v>
+                  <c:v>17.648408441059896</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.278199318228278</c:v>
+                  <c:v>16.848117948281267</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-9AC2-E74A-B5D1-024C42B961FA}"/>
@@ -3792,46 +3724,29 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>all_aggregates!$A$14:$C$14</c:f>
+              <c:f>all_aggregates!$C$14</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>median</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>mode</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>predicted</c:v>
+                  <c:v>impute=mode</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -3948,108 +3863,108 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="33"/>
                 <c:pt idx="0">
-                  <c:v>99.906757775380285</c:v>
+                  <c:v>99.930990485665433</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>97.700371111597207</c:v>
+                  <c:v>98.292021747994667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>95.464844614338659</c:v>
+                  <c:v>96.619441844517311</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>91.178004448682742</c:v>
+                  <c:v>93.377143185865066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>83.288409442527339</c:v>
+                  <c:v>87.281856888960405</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.219715696928063</c:v>
+                  <c:v>81.666434306606604</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69.875116066693408</c:v>
+                  <c:v>76.487936125291014</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64.170397588332065</c:v>
+                  <c:v>71.707672849454397</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59.032164422165643</c:v>
+                  <c:v>67.290747491698994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>54.396329566472744</c:v>
+                  <c:v>63.205651131348084</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50.206832149208637</c:v>
+                  <c:v>59.423904832789916</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>46.414544429425519</c:v>
+                  <c:v>55.919742262467935</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42.976338662545047</c:v>
+                  <c:v>52.669828074753632</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>39.854288943880348</c:v>
+                  <c:v>49.65300776889611</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37.014987238988354</c:v>
+                  <c:v>46.850085265942546</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>34.428956195703414</c:v>
+                  <c:v>44.243624928013119</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32.070144139117332</c:v>
+                  <c:v>41.817775152866986</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29.915489981240231</c:v>
+                  <c:v>39.558111033081616</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>27.944547716107401</c:v>
+                  <c:v>37.451493878876853</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>26.139161787538516</c:v>
+                  <c:v>35.48594567306175</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24.483185966833851</c:v>
+                  <c:v>33.65053676125266</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>22.962239507400398</c:v>
+                  <c:v>31.935285285117562</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21.563495290348605</c:v>
+                  <c:v>30.331067044984316</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20.275495470455756</c:v>
+                  <c:v>28.829534634185006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>19.087990801043883</c:v>
+                  <c:v>27.423044823982472</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>17.991800380279148</c:v>
+                  <c:v>26.104593297415263</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>16.978689037525331</c:v>
+                  <c:v>24.867755935122453</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>16.0412599810379</c:v>
+                  <c:v>23.70663594808801</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>15.172860669376661</c:v>
+                  <c:v>22.615816232931227</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>14.367500158331966</c:v>
+                  <c:v>21.590316396297709</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>13.619776421130478</c:v>
+                  <c:v>20.625553957317528</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>12.924812349067523</c:v>
+                  <c:v>19.71730929206538</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>12.278199318228278</c:v>
+                  <c:v>18.861693932419648</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
+          <c:smooth val="1"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-9AC2-E74A-B5D1-024C42B961FA}"/>
@@ -4070,11 +3985,72 @@
       <c:valAx>
         <c:axId val="638910255"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
+          <c:max val="3100"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="4000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Cost of Certification ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4116,11 +4092,79 @@
       <c:valAx>
         <c:axId val="1734546992"/>
         <c:scaling>
-          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="4000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Likelihood Purchase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.21527405949256342"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4158,6 +4202,7 @@
         <c:crossAx val="638910255"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4168,15 +4213,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="l"/>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="6.1387244632105764E-2"/>
-          <c:y val="2.4598043705887303E-2"/>
-          <c:w val="0.34609122461307662"/>
-          <c:h val="0.32170728118082398"/>
+          <c:x val="0.11788471855488558"/>
+          <c:y val="0.45665868328958886"/>
+          <c:w val="0.28583847662499939"/>
+          <c:h val="0.41256867891513554"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4246,10 +4291,3524 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="3000">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Mean Aggregation</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.1155837170929121"/>
+          <c:y val="6.8485478748977535E-2"/>
+          <c:w val="0.85540013489935651"/>
+          <c:h val="0.80321609798775151"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_aggregates!$C$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>impute=none_all_data;</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$2:$AJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$15:$AJ$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>96.981099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.352900000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.938800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.520399999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.7273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.516900000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.576900000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.239400000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.0794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.745800000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.018500000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.681800000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.7714</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.088200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.433300000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.566699999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.833300000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38.758600000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.758600000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.689700000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.344799999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.8889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.842100000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30.0625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.9375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.642900000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.307699999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.818199999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EE43-C942-8923-6165CFCE041C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_aggregates!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>impute=none_complete_data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$2:$AJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$16:$AJ$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>99.615384615384613</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.115384615384613</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.288461538461533</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.65384615384616</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.865384615384613</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.711538461538467</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.115384615384613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>53.057692307692307</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41.71153846153846</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.653846153846153</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.73076923076923</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>26.03846153846154</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.26923076923077</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.134615384615383</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18.692307692307693</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17.615384615384617</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.403846153846153</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.384615384615383</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>14.807692307692308</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.923076923076923</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.673076923076923</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>12.48076923076923</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.807692307692308</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.25</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.25</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.7884615384615383</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.75</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.7692307692307692</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.6730769230769234</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.5192307692307692</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EE43-C942-8923-6165CFCE041C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_aggregates!$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>impute=knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="11"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$2:$AJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$17:$AJ$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>96.924800000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.887100000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.885800000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.286000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.958399999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75.700500000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.9499</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>51.927</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>40.6678</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.456200000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.317300000000003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>29.565999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>26.8856</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>26.875699999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.263000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.963699999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>27.849699999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.956700000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.549700000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.757200000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>23.745100000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.655000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>20.7973</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.2509</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.739100000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>19.663799999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18.952100000000002</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.205100000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>23.0397</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>22.1632</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.692799999999998</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.776199999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>21.875</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EE43-C942-8923-6165CFCE041C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_aggregates!$C$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>impute=med</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$2:$AJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$18:$AJ$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>97.419399999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.645200000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>97.451599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>96.790300000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90.137100000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>82.709699999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>66.064499999999995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.903199999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44.137099999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35.862900000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33.104799999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>27.540299999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24.104800000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.661300000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.4758</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>36.121000000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>40.346800000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>39.758099999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>35.927399999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>35.878999999999998</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.177399999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.161299999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.782299999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.629000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>28.298400000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.201599999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>21.298400000000001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>22.0242</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>22.645199999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>20.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>23.1371</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23.6371</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>23.064499999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EE43-C942-8923-6165CFCE041C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_aggregates!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>impute=avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="12"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:alpha val="46000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$2:$AJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$19:$AJ$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>96.981099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.352900000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.938800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.520399999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.7273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.516900000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.576900000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.239400000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.0794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.745800000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.018500000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.681800000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.7714</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.088200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.433300000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.566699999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.833300000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38.758600000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.758600000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.689700000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.344799999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.8889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.842100000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30.0625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.9375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.642900000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.307699999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.818199999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EE43-C942-8923-6165CFCE041C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_aggregates!$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>impute=mode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="9"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$2:$AJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$20:$AJ$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>96.981099999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.352900000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.932000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.938800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>87.520399999999995</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>79.7273</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.516900000000007</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>46.576900000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>40.239400000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>37.0794</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>34.745800000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>32.018500000000003</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>34.681800000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>40.7714</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>39.088200000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>41.433300000000003</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.566699999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>38.833300000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>38.758600000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>35.758600000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>35.689700000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>33.344799999999999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.8889</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>32.450000000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>32.842100000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>30.0625</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.9375</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>31.642900000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>33.307699999999997</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.818199999999997</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>34.25</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>34</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-EE43-C942-8923-6165CFCE041C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_aggregates!$C$21</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>impute=none_all_data;</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$2:$AJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$21:$AJ$21</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>99.924326158897017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.128893106551288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.300256855417274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.766019374729709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.160772428094305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.122283288967367</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.595321911313832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.530606852786974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.884109154755919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.616443684363396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.692336243762689</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.080156404580826</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.751507432964615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.680865870480503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.845264360650866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.224012186868627</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.798448737399113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.551725756139724</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.468614789763393</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.535336716325489</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.739410648773895</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.06951985872746</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.515392669559059</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.067696530180861</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.717943707877609</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.458407235089865</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.282045915485512</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.182437342621185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.153718013100271</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.190529728040353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.287971574152799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.441556860760254</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.647174463314581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-EE43-C942-8923-6165CFCE041C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_aggregates!$C$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>impute=none_complete_data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$2:$AJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$22:$AJ$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>99.847496371347148</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96.270942344892575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>92.710014640951243</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>86.058471435124119</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.424031419236726</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.667992293928549</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.448854745851293</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>49.493207155605759</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43.581082321982933</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>38.534672607317724</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.209588989511353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.488057048665539</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.273595185851132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>24.486832688982219</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.062208542448627</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.945353944365273</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>18.091007982069286</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>16.461350902706492</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>15.024665871013116</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>13.754260203070411</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12.627592399799898</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>11.625563056795077</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10.731936773037006</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.9328691726024001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.2165185792035906</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5727261107120523</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.9927512671837011</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.4690526817483507</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.995105749266739</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.5652504653749686</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.174564092415733</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.8187542911988936</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.4940691745141468</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-EE43-C942-8923-6165CFCE041C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_aggregates!$C$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>impute=knn</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$2:$AJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$23:$AJ$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>99.886315725914699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.204507092653799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>94.503657523416038</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>89.371411976613956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80.091794830751709</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.967955344757087</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.837115671860289</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.561735405654318</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.02527600361865</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>48.128725767419354</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43.787740517063341</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>39.930284169313069</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>36.494676388566852</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.427972663094884</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30.684616607105223</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28.225315801724015</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>26.01610168858144</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>24.027541403635965</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.234075365386005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.613459207936515</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>19.146292509132671</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>17.815619891299932</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>16.606592612612584</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15.506180836142178</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>14.502928452924237</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>13.586743718016526</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>12.748720092902387</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.980982620498699</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>11.276555928029508</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>10.629250588367608</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.033565096538025</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.4846011546639666</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>8.9779903217308217</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-EE43-C942-8923-6165CFCE041C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_aggregates!$C$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>impute=med</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$2:$AJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$24:$AJ$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>99.909496812605852</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>97.767036576241367</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.594520011771152</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>91.423412448805252</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>83.728462667845363</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.812571496907694</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70.586315422591852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64.971597669212088</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.900091717772646</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.311914145747309</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.154490878241823</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47.381586877221494</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43.952474201264835</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>40.831217430693194</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>37.986058823548859</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.388888369966395</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.014786246356692</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>30.841627118384135</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>28.849737369918714</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>27.021597698836953</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>25.341584664750247</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>23.795745735481532</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.371603188895502</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>21.057982909694825</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>19.84486469784548</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>18.723251193638561</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>17.685052938347646</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>16.722987440899757</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>15.830490419854259</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>15.0016376445428</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>14.231076016372086</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13.513962716809237</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.845911407302758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-EE43-C942-8923-6165CFCE041C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_aggregates!$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>impute=avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="lgDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$2:$AJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$25:$AJ$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>99.924326158897017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.128893106551288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.300256855417274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.766019374729709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.160772428094305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.122283288967367</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.595321911313832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.530606852786974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.884109154755919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.616443684363396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.692336243762689</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.080156404580826</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.751507432964615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.680865870480503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.845264360650866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.224012186868627</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.798448737399113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.551725756139724</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.468614789763393</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.535336716325489</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.739410648773895</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.06951985872746</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.515392669559059</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.067696530180861</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.717943707877609</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.458407235089865</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.282045915485512</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.182437342621185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.153718013100271</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.190529728040353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.287971574152799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.441556860760254</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.647174463314581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-EE43-C942-8923-6165CFCE041C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>all_aggregates!$C$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>impute=mode</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$2:$AJ$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1100</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1200</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2800</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2900</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>all_aggregates!$D$26:$AJ$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="33"/>
+                <c:pt idx="0">
+                  <c:v>99.924326158897017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>98.128893106551288</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>96.300256855417274</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>92.766019374729709</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.160772428094305</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80.122283288967367</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.595321911313832</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>69.530606852786974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>64.884109154755919</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.616443684363396</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.692336243762689</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.080156404580826</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.751507432964615</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>46.680865870480503</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43.845264360650866</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>41.224012186868627</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>38.798448737399113</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>36.551725756139724</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>34.468614789763393</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32.535336716325489</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>30.739410648773895</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>29.06951985872746</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>27.515392669559059</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>26.067696530180861</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24.717943707877609</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>23.458407235089865</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.282045915485512</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.182437342621185</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20.153718013100271</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>19.190529728040353</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>18.287971574152799</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>17.441556860760254</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>16.647174463314581</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-EE43-C942-8923-6165CFCE041C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="638910255"/>
+        <c:axId val="1734546992"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="638910255"/>
+        <c:scaling>
+          <c:logBase val="2"/>
+          <c:orientation val="minMax"/>
+          <c:max val="3100"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="4000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Cost of Certification ($)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1734546992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1734546992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="4000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Likelihood Purchase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0"/>
+              <c:y val="0.21527405949256342"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="638910255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="20"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="l"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11788471855488558"/>
+          <c:y val="0.42471423884514437"/>
+          <c:w val="0.27209146095191317"/>
+          <c:h val="0.44451312335958004"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -4805,20 +8364,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>684389</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>74790</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1347609</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>42333</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>141112</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>28222</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>28223</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4843,7 +8918,575 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>254001</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>155222</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>585613</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>14111</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{833F8421-5018-BE4C-A9E1-F232D0DE6294}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03704</cdr:x>
+      <cdr:y>0.03395</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08231</cdr:x>
+      <cdr:y>0.88889</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53ED9DB3-06CE-0143-9645-9C90C721E95B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-3026687" y="3884664"/>
+          <a:ext cx="7817555" cy="669116"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>←</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Unlikely to Purchase		      Likely to Purchase →</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10558</cdr:x>
+      <cdr:y>0.87901</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.93513</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437A4800-C044-D04C-B3BB-DAB5D9C976A4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1560688" y="8037691"/>
+          <a:ext cx="13220702" cy="513122"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>0                     				       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>25</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0"/>
+            <a:t>              50             100             200            400            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0"/>
+            <a:t>800          1500          3000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.03704</cdr:x>
+      <cdr:y>0.03395</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.08231</cdr:x>
+      <cdr:y>0.88889</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53ED9DB3-06CE-0143-9645-9C90C721E95B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="16200000">
+          <a:off x="-3026687" y="3884664"/>
+          <a:ext cx="7817555" cy="669116"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>←</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Unlikely to Purchase		      Likely to Purchase →</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1000"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10558</cdr:x>
+      <cdr:y>0.87901</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.93513</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 3">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{437A4800-C044-D04C-B3BB-DAB5D9C976A4}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1560688" y="8037691"/>
+          <a:ext cx="13220702" cy="513122"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:style>
+        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </cdr:style>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>0                     				       </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000"/>
+            <a:t>25</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0"/>
+            <a:t>              50             100             200            400            </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2000" baseline="0"/>
+            <a:t>800          1500          3000</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2000"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5145,24 +9788,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.5" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -5264,30 +9910,30 @@
         <v>32</v>
       </c>
       <c r="AK1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO1" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D2" s="1">
         <v>1</v>
@@ -5389,30 +10035,30 @@
         <v>3000</v>
       </c>
       <c r="AK2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -5514,30 +10160,30 @@
         <v>22</v>
       </c>
       <c r="AK3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AL3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AM3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AO3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B4" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>100</v>
@@ -5639,30 +10285,30 @@
         <v>0</v>
       </c>
       <c r="AK4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AL4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AM4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AO4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C5" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D5">
         <v>100</v>
@@ -5764,30 +10410,30 @@
         <v>13.5</v>
       </c>
       <c r="AK5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AL5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AO5" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>100</v>
@@ -5889,30 +10535,30 @@
         <v>22</v>
       </c>
       <c r="AK6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AL6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AM6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AO6" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D7">
         <v>100</v>
@@ -6014,30 +10660,30 @@
         <v>34</v>
       </c>
       <c r="AK7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AM7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AO7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D8" s="1">
         <v>100</v>
@@ -6139,176 +10785,176 @@
         <v>34</v>
       </c>
       <c r="AK8" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AL8" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AM8" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN8" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AO8" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*D$2)-1))))</f>
-        <v>99.906757775380285</v>
+        <v>99.904834895174361</v>
       </c>
       <c r="E9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*E$2)-1))))</f>
-        <v>97.700371111597207</v>
+        <v>97.653601849776607</v>
       </c>
       <c r="F9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*F$2)-1))))</f>
-        <v>95.464844614338659</v>
+        <v>95.373934415680651</v>
       </c>
       <c r="G9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*G$2)-1))))</f>
-        <v>91.178004448682742</v>
+        <v>91.006196969030356</v>
       </c>
       <c r="H9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*H$2)-1))))</f>
-        <v>83.288409442527339</v>
+        <v>82.981164513402419</v>
       </c>
       <c r="I9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*I$2)-1))))</f>
-        <v>76.219715696928063</v>
+        <v>75.806864911397014</v>
       </c>
       <c r="J9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*J$2)-1))))</f>
-        <v>69.875116066693408</v>
+        <v>69.381104471369156</v>
       </c>
       <c r="K9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*K$2)-1))))</f>
-        <v>64.170397588332065</v>
+        <v>63.615229334801718</v>
       </c>
       <c r="L9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*L$2)-1))))</f>
-        <v>59.032164422165643</v>
+        <v>58.43218016100392</v>
       </c>
       <c r="M9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*M$2)-1))))</f>
-        <v>54.396329566472744</v>
+        <v>53.76484634220774</v>
       </c>
       <c r="N9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*N$2)-1))))</f>
-        <v>50.206832149208637</v>
+        <v>49.554670750800454</v>
       </c>
       <c r="O9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*O$2)-1))))</f>
-        <v>46.414544429425519</v>
+        <v>45.75046447868376</v>
       </c>
       <c r="P9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*P$2)-1))))</f>
-        <v>42.976338662545047</v>
+        <v>42.307397954503415</v>
       </c>
       <c r="Q9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*Q$2)-1))))</f>
-        <v>39.854288943880348</v>
+        <v>39.186140507892873</v>
       </c>
       <c r="R9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*R$2)-1))))</f>
-        <v>37.014987238988354</v>
+        <v>36.352125123884385</v>
       </c>
       <c r="S9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*S$2)-1))))</f>
-        <v>34.428956195703414</v>
+        <v>33.774918982720429</v>
       </c>
       <c r="T9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*T$2)-1))))</f>
-        <v>32.070144139117332</v>
+        <v>31.427683561645704</v>
       </c>
       <c r="U9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*U$2)-1))))</f>
-        <v>29.915489981240231</v>
+        <v>29.286710708082929</v>
       </c>
       <c r="V9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*V$2)-1))))</f>
-        <v>27.944547716107401</v>
+        <v>27.331023276896953</v>
       </c>
       <c r="W9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*W$2)-1))))</f>
-        <v>26.139161787538516</v>
+        <v>25.542030738596988</v>
       </c>
       <c r="X9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*X$2)-1))))</f>
-        <v>24.483185966833851</v>
+        <v>23.903231675699306</v>
       </c>
       <c r="Y9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*Y$2)-1))))</f>
-        <v>22.962239507400398</v>
+        <v>22.399956344371368</v>
       </c>
       <c r="Z9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*Z$2)-1))))</f>
-        <v>21.563495290348605</v>
+        <v>21.019143531442364</v>
       </c>
       <c r="AA9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AA$2)-1))))</f>
-        <v>20.275495470455756</v>
+        <v>19.749146818532886</v>
       </c>
       <c r="AB9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AB$2)-1))))</f>
-        <v>19.087990801043883</v>
+        <v>18.579566104657943</v>
       </c>
       <c r="AC9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AC$2)-1))))</f>
-        <v>17.991800380279148</v>
+        <v>17.501100860209622</v>
       </c>
       <c r="AD9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AD$2)-1))))</f>
-        <v>16.978689037525331</v>
+        <v>16.505422108507219</v>
       </c>
       <c r="AE9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AE$2)-1))))</f>
-        <v>16.0412599810379</v>
+        <v>15.58506057242405</v>
       </c>
       <c r="AF9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AF$2)-1))))</f>
-        <v>15.172860669376661</v>
+        <v>14.733308796446137</v>
       </c>
       <c r="AG9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AG$2)-1))))</f>
-        <v>14.367500158331966</v>
+        <v>13.944135370048871</v>
       </c>
       <c r="AH9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AH$2)-1))))</f>
-        <v>13.619776421130478</v>
+        <v>13.212109645754822</v>
       </c>
       <c r="AI9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AI$2)-1))))</f>
-        <v>12.924812349067523</v>
+        <v>12.532335572351579</v>
       </c>
       <c r="AJ9" s="2">
         <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AJ$2)-1))))</f>
-        <v>12.278199318228278</v>
+        <v>11.900393456908317</v>
       </c>
       <c r="AK9">
-        <v>99.999999999573774</v>
+        <v>100</v>
       </c>
       <c r="AL9">
-        <v>2.02587890625E-6</v>
+        <v>2.0676816555204215E-6</v>
       </c>
       <c r="AM9" s="2">
         <f>1-(AN9/DEVSQ(D9:AJ9))</f>
-        <v>0.81983376638842986</v>
+        <v>0.82148127340270116</v>
       </c>
       <c r="AN9" s="2">
         <f>((D9-D3)^2)+((E9-E3)^2)+((F9-F3)^2)+((G9-G3)^2)+((H9-H3)^2)+((I9-I3)^2)+((J9-J3)^2)+((K9-K3)^2)+((L9-L3)^2)+((M9-M3)^2)+((N9-N3)^2)+((O9-O3)^2)+((P9-P3)^2)+((Q9-Q3)^2)+((R9-R3)^2)+((S9-S3)^2)+((T9-T3)^2)+((U9-U3)^2)+((V9-V3)^2)+((W9-W3)^2)+((X9-X3)^2)+((Y9-Y3)^2)+((Z9-Z3)^2)+((AA9-AA3)^2)+((AB9-AB3)^2)+((AC9-AC3)^2)+((AD9-AD3)^2)+((AE9-AE3)^2)+((AF9-AF3)^2)+((AG9-AG3)^2)+((AH9-AH3)^2)+((AI9-AI3)^2)+((AJ9-AJ3)^2)</f>
-        <v>4534.179995251453</v>
+        <v>4526.4956990053524</v>
       </c>
       <c r="AO9">
         <v>2</v>
@@ -6316,159 +10962,159 @@
     </row>
     <row r="10" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="C10" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*D$2)-1))))</f>
-        <v>99.906757775380285</v>
+        <v>99.791436390877152</v>
       </c>
       <c r="E10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*E$2)-1))))</f>
-        <v>97.700371111597207</v>
+        <v>94.941205573884275</v>
       </c>
       <c r="F10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*F$2)-1))))</f>
-        <v>95.464844614338659</v>
+        <v>90.191088545647403</v>
       </c>
       <c r="G10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*G$2)-1))))</f>
-        <v>91.178004448682742</v>
+        <v>81.532809419487734</v>
       </c>
       <c r="H10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*H$2)-1))))</f>
-        <v>83.288409442527339</v>
+        <v>67.08042192652465</v>
       </c>
       <c r="I10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*I$2)-1))))</f>
-        <v>76.219715696928063</v>
+        <v>55.669312768242172</v>
       </c>
       <c r="J10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*J$2)-1))))</f>
-        <v>69.875116066693408</v>
+        <v>46.5828528163537</v>
       </c>
       <c r="K10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*K$2)-1))))</f>
-        <v>64.170397588332065</v>
+        <v>39.28866631497484</v>
       </c>
       <c r="L10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*L$2)-1))))</f>
-        <v>59.032164422165643</v>
+        <v>33.387766331725174</v>
       </c>
       <c r="M10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*M$2)-1))))</f>
-        <v>54.396329566472744</v>
+        <v>28.578600231117601</v>
       </c>
       <c r="N10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*N$2)-1))))</f>
-        <v>50.206832149208637</v>
+        <v>24.63140188939164</v>
       </c>
       <c r="O10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*O$2)-1))))</f>
-        <v>46.414544429425519</v>
+        <v>21.369734898158192</v>
       </c>
       <c r="P10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*P$2)-1))))</f>
-        <v>42.976338662545047</v>
+        <v>18.657097905129568</v>
       </c>
       <c r="Q10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*Q$2)-1))))</f>
-        <v>39.854288943880348</v>
+        <v>16.387124281066942</v>
       </c>
       <c r="R10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*R$2)-1))))</f>
-        <v>37.014987238988354</v>
+        <v>14.476355176964805</v>
       </c>
       <c r="S10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*S$2)-1))))</f>
-        <v>34.428956195703414</v>
+        <v>12.858869831326873</v>
       </c>
       <c r="T10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*T$2)-1))))</f>
-        <v>32.070144139117332</v>
+        <v>11.482266671650136</v>
       </c>
       <c r="U10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*U$2)-1))))</f>
-        <v>29.915489981240231</v>
+        <v>10.30463420974796</v>
       </c>
       <c r="V10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*V$2)-1))))</f>
-        <v>27.944547716107401</v>
+        <v>9.2922524446350927</v>
       </c>
       <c r="W10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*W$2)-1))))</f>
-        <v>26.139161787538516</v>
+        <v>8.4178371674739711</v>
       </c>
       <c r="X10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*X$2)-1))))</f>
-        <v>24.483185966833851</v>
+        <v>7.6591904590878475</v>
       </c>
       <c r="Y10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*Y$2)-1))))</f>
-        <v>22.962239507400398</v>
+        <v>6.9981570718966992</v>
       </c>
       <c r="Z10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*Z$2)-1))))</f>
-        <v>21.563495290348605</v>
+        <v>6.4198126062637613</v>
       </c>
       <c r="AA10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AA$2)-1))))</f>
-        <v>20.275495470455756</v>
+        <v>5.9118284036977444</v>
       </c>
       <c r="AB10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AB$2)-1))))</f>
-        <v>19.087990801043883</v>
+        <v>5.4639719575439747</v>
       </c>
       <c r="AC10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AC$2)-1))))</f>
-        <v>17.991800380279148</v>
+        <v>5.0677118369758025</v>
       </c>
       <c r="AD10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AD$2)-1))))</f>
-        <v>16.978689037525331</v>
+        <v>4.7159036560377041</v>
       </c>
       <c r="AE10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AE$2)-1))))</f>
-        <v>16.0412599810379</v>
+        <v>4.4025392232221066</v>
       </c>
       <c r="AF10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AF$2)-1))))</f>
-        <v>15.172860669376661</v>
+        <v>4.1225451982185763</v>
       </c>
       <c r="AG10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AG$2)-1))))</f>
-        <v>14.367500158331966</v>
+        <v>3.8716207347951253</v>
       </c>
       <c r="AH10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AH$2)-1))))</f>
-        <v>13.619776421130478</v>
+        <v>3.6461059726967671</v>
       </c>
       <c r="AI10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AI$2)-1))))</f>
-        <v>12.924812349067523</v>
+        <v>3.4428750538267217</v>
       </c>
       <c r="AJ10" s="2">
         <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AJ$2)-1))))</f>
-        <v>12.278199318228278</v>
+        <v>3.2592487229192044</v>
       </c>
       <c r="AK10">
-        <v>99.999999999573774</v>
+        <v>100</v>
       </c>
       <c r="AL10">
-        <v>2.02587890625E-6</v>
+        <v>4.5346586263825214E-6</v>
       </c>
       <c r="AM10" s="2">
         <f>1-(AN10/DEVSQ(D10:AJ10))</f>
-        <v>0.29615545148018885</v>
+        <v>0.84006659622644397</v>
       </c>
       <c r="AN10" s="2">
         <f>((D10-D4)^2)+((E10-E4)^2)+((F10-F4)^2)+((G10-G4)^2)+((H10-H4)^2)+((I10-I4)^2)+((J10-J4)^2)+((K10-K4)^2)+((L10-L4)^2)+((M10-M4)^2)+((N10-N4)^2)+((O10-O4)^2)+((P10-P4)^2)+((Q10-Q4)^2)+((R10-R4)^2)+((S10-S4)^2)+((T10-T4)^2)+((U10-U4)^2)+((V10-V4)^2)+((W10-W4)^2)+((X10-X4)^2)+((Y10-Y4)^2)+((Z10-Z4)^2)+((AA10-AA4)^2)+((AB10-AB4)^2)+((AC10-AC4)^2)+((AD10-AD4)^2)+((AE10-AE4)^2)+((AF10-AF4)^2)+((AG10-AG4)^2)+((AH10-AH4)^2)+((AI10-AI4)^2)+((AJ10-AJ4)^2)</f>
-        <v>17713.4072666787</v>
+        <v>4463.4208626741301</v>
       </c>
       <c r="AO10">
         <v>2</v>
@@ -6476,159 +11122,159 @@
     </row>
     <row r="11" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*D$2)-1))))</f>
-        <v>99.906757775380285</v>
+        <v>99.858724686362095</v>
       </c>
       <c r="E11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*E$2)-1))))</f>
-        <v>97.700371111597207</v>
+        <v>96.539889250906342</v>
       </c>
       <c r="F11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*F$2)-1))))</f>
-        <v>95.464844614338659</v>
+        <v>93.224601066782185</v>
       </c>
       <c r="G11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*G$2)-1))))</f>
-        <v>91.178004448682742</v>
+        <v>87.001203704911816</v>
       </c>
       <c r="H11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*H$2)-1))))</f>
-        <v>83.288409442527339</v>
+        <v>76.011467929985571</v>
       </c>
       <c r="I11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*I$2)-1))))</f>
-        <v>76.219715696928063</v>
+        <v>66.681641619715592</v>
       </c>
       <c r="J11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*J$2)-1))))</f>
-        <v>69.875116066693408</v>
+        <v>58.729071052358449</v>
       </c>
       <c r="K11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*K$2)-1))))</f>
-        <v>64.170397588332065</v>
+        <v>51.923943181587752</v>
       </c>
       <c r="L11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*L$2)-1))))</f>
-        <v>59.032164422165643</v>
+        <v>46.078619613299246</v>
       </c>
       <c r="M11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*M$2)-1))))</f>
-        <v>54.396329566472744</v>
+        <v>41.039268656869147</v>
       </c>
       <c r="N11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*N$2)-1))))</f>
-        <v>50.206832149208637</v>
+        <v>36.679271406735012</v>
       </c>
       <c r="O11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*O$2)-1))))</f>
-        <v>46.414544429425519</v>
+        <v>32.894003462482551</v>
       </c>
       <c r="P11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*P$2)-1))))</f>
-        <v>42.976338662545047</v>
+        <v>29.596688033747899</v>
       </c>
       <c r="Q11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*Q$2)-1))))</f>
-        <v>39.854288943880348</v>
+        <v>26.715087032530509</v>
       </c>
       <c r="R11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*R$2)-1))))</f>
-        <v>37.014987238988354</v>
+        <v>24.188850330377335</v>
       </c>
       <c r="S11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*S$2)-1))))</f>
-        <v>34.428956195703414</v>
+        <v>21.967384045959811</v>
       </c>
       <c r="T11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*T$2)-1))))</f>
-        <v>32.070144139117332</v>
+        <v>20.008129763511583</v>
       </c>
       <c r="U11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*U$2)-1))))</f>
-        <v>29.915489981240231</v>
+        <v>18.275170354775423</v>
       </c>
       <c r="V11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*V$2)-1))))</f>
-        <v>27.944547716107401</v>
+        <v>16.738096361412548</v>
       </c>
       <c r="W11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*W$2)-1))))</f>
-        <v>26.139161787538516</v>
+        <v>15.371081014928215</v>
       </c>
       <c r="X11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*X$2)-1))))</f>
-        <v>24.483185966833851</v>
+        <v>14.152122918459536</v>
       </c>
       <c r="Y11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*Y$2)-1))))</f>
-        <v>22.962239507400398</v>
+        <v>13.06242393489824</v>
       </c>
       <c r="Z11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*Z$2)-1))))</f>
-        <v>21.563495290348605</v>
+        <v>12.085876481888807</v>
       </c>
       <c r="AA11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AA$2)-1))))</f>
-        <v>20.275495470455756</v>
+        <v>11.208639653212291</v>
       </c>
       <c r="AB11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AB$2)-1))))</f>
-        <v>19.087990801043883</v>
+        <v>10.418787692938118</v>
       </c>
       <c r="AC11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AC$2)-1))))</f>
-        <v>17.991800380279148</v>
+        <v>9.7060175918381884</v>
       </c>
       <c r="AD11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AD$2)-1))))</f>
-        <v>16.978689037525331</v>
+        <v>9.0614051453803679</v>
       </c>
       <c r="AE11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AE$2)-1))))</f>
-        <v>16.0412599810379</v>
+        <v>8.4772008557747434</v>
       </c>
       <c r="AF11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AF$2)-1))))</f>
-        <v>15.172860669376661</v>
+        <v>7.9466586903123302</v>
       </c>
       <c r="AG11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AG$2)-1))))</f>
-        <v>14.367500158331966</v>
+        <v>7.4638920124316295</v>
       </c>
       <c r="AH11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AH$2)-1))))</f>
-        <v>13.619776421130478</v>
+        <v>7.0237520488933658</v>
       </c>
       <c r="AI11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AI$2)-1))))</f>
-        <v>12.924812349067523</v>
+        <v>6.6217250994652765</v>
       </c>
       <c r="AJ11" s="2">
         <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AJ$2)-1))))</f>
-        <v>12.278199318228278</v>
+        <v>6.2538453763798918</v>
       </c>
       <c r="AK11">
-        <v>99.999999999573774</v>
+        <v>100</v>
       </c>
       <c r="AL11">
-        <v>2.02587890625E-6</v>
+        <v>3.0703948080584513E-6</v>
       </c>
       <c r="AM11" s="2">
         <f>1-(AN11/DEVSQ(D11:AJ11))</f>
-        <v>0.8152373298696689</v>
+        <v>0.93226835990424284</v>
       </c>
       <c r="AN11" s="2">
         <f>((D11-D5)^2)+((E11-E5)^2)+((F11-F5)^2)+((G11-G5)^2)+((H11-H5)^2)+((I11-I5)^2)+((J11-J5)^2)+((K11-K5)^2)+((L11-L5)^2)+((M11-M5)^2)+((N11-N5)^2)+((O11-O5)^2)+((P11-P5)^2)+((Q11-Q5)^2)+((R11-R5)^2)+((S11-S5)^2)+((T11-T5)^2)+((U11-U5)^2)+((V11-V5)^2)+((W11-W5)^2)+((X11-X5)^2)+((Y11-Y5)^2)+((Z11-Z5)^2)+((AA11-AA5)^2)+((AB11-AB5)^2)+((AC11-AC5)^2)+((AD11-AD5)^2)+((AE11-AE5)^2)+((AF11-AF5)^2)+((AG11-AG5)^2)+((AH11-AH5)^2)+((AI11-AI5)^2)+((AJ11-AJ5)^2)</f>
-        <v>4649.8568903889818</v>
+        <v>1881.0532754414776</v>
       </c>
       <c r="AO11">
         <v>2</v>
@@ -6636,159 +11282,159 @@
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*D$2)-1))))</f>
-        <v>99.906757775380285</v>
+        <v>99.861960976815581</v>
       </c>
       <c r="E12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*E$2)-1))))</f>
-        <v>97.700371111597207</v>
+        <v>96.617569813353271</v>
       </c>
       <c r="F12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*F$2)-1))))</f>
-        <v>95.464844614338659</v>
+        <v>93.373551826978485</v>
       </c>
       <c r="G12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*G$2)-1))))</f>
-        <v>91.178004448682742</v>
+        <v>87.275243081121431</v>
       </c>
       <c r="H12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*H$2)-1))))</f>
-        <v>83.288409442527339</v>
+        <v>76.476687228648615</v>
       </c>
       <c r="I12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*I$2)-1))))</f>
-        <v>76.219715696928063</v>
+        <v>67.27634213888723</v>
       </c>
       <c r="J12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*J$2)-1))))</f>
-        <v>69.875116066693408</v>
+        <v>59.407444839378321</v>
       </c>
       <c r="K12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*K$2)-1))))</f>
-        <v>64.170397588332065</v>
+        <v>52.652130962005174</v>
       </c>
       <c r="L12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*L$2)-1))))</f>
-        <v>59.032164422165643</v>
+        <v>46.83175389306907</v>
       </c>
       <c r="M12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*M$2)-1))))</f>
-        <v>54.396329566472744</v>
+        <v>41.799250250235957</v>
       </c>
       <c r="N12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*N$2)-1))))</f>
-        <v>50.206832149208637</v>
+        <v>37.433093767296072</v>
       </c>
       <c r="O12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*O$2)-1))))</f>
-        <v>46.414544429425519</v>
+        <v>33.632487439506768</v>
       </c>
       <c r="P12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*P$2)-1))))</f>
-        <v>42.976338662545047</v>
+        <v>30.313525017014886</v>
       </c>
       <c r="Q12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*Q$2)-1))))</f>
-        <v>39.854288943880348</v>
+        <v>27.406114438824741</v>
       </c>
       <c r="R12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*R$2)-1))))</f>
-        <v>37.014987238988354</v>
+        <v>24.851502569613736</v>
       </c>
       <c r="S12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*S$2)-1))))</f>
-        <v>34.428956195703414</v>
+        <v>22.600276317875132</v>
       </c>
       <c r="T12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*T$2)-1))))</f>
-        <v>32.070144139117332</v>
+        <v>20.61074260217632</v>
       </c>
       <c r="U12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*U$2)-1))))</f>
-        <v>29.915489981240231</v>
+        <v>18.84761071983079</v>
       </c>
       <c r="V12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*V$2)-1))))</f>
-        <v>27.944547716107401</v>
+        <v>17.280916972942684</v>
       </c>
       <c r="W12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*W$2)-1))))</f>
-        <v>26.139161787538516</v>
+        <v>15.885144056065975</v>
       </c>
       <c r="X12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*X$2)-1))))</f>
-        <v>24.483185966833851</v>
+        <v>14.638497562745394</v>
       </c>
       <c r="Y12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*Y$2)-1))))</f>
-        <v>22.962239507400398</v>
+        <v>13.522309671551056</v>
       </c>
       <c r="Z12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*Z$2)-1))))</f>
-        <v>21.563495290348605</v>
+        <v>12.520546116704773</v>
       </c>
       <c r="AA12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AA$2)-1))))</f>
-        <v>20.275495470455756</v>
+        <v>11.619397308043723</v>
       </c>
       <c r="AB12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AB$2)-1))))</f>
-        <v>19.087990801043883</v>
+        <v>10.806938225967599</v>
       </c>
       <c r="AC12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AC$2)-1))))</f>
-        <v>17.991800380279148</v>
+        <v>10.072844698806723</v>
       </c>
       <c r="AD12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AD$2)-1))))</f>
-        <v>16.978689037525331</v>
+        <v>9.4081560419648156</v>
       </c>
       <c r="AE12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AE$2)-1))))</f>
-        <v>16.0412599810379</v>
+        <v>8.8050759310850193</v>
       </c>
       <c r="AF12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AF$2)-1))))</f>
-        <v>15.172860669376661</v>
+        <v>8.256804896892417</v>
       </c>
       <c r="AG12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AG$2)-1))))</f>
-        <v>14.367500158331966</v>
+        <v>7.7573990463253883</v>
       </c>
       <c r="AH12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AH$2)-1))))</f>
-        <v>13.619776421130478</v>
+        <v>7.3016505948253227</v>
       </c>
       <c r="AI12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AI$2)-1))))</f>
-        <v>12.924812349067523</v>
+        <v>6.8849865865942554</v>
       </c>
       <c r="AJ12" s="2">
         <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AJ$2)-1))))</f>
-        <v>12.278199318228278</v>
+        <v>6.5033828212917664</v>
       </c>
       <c r="AK12">
         <v>99.999999999573774</v>
       </c>
       <c r="AL12">
-        <v>2.02587890625E-6</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="AM12" s="2">
         <f>1-(AN12/DEVSQ(D12:AJ12))</f>
-        <v>0.81983376638842986</v>
+        <v>0.75553847660236773</v>
       </c>
       <c r="AN12" s="2">
         <f>((D12-D6)^2)+((E12-E6)^2)+((F12-F6)^2)+((G12-G6)^2)+((H12-H6)^2)+((I12-I6)^2)+((J12-J6)^2)+((K12-K6)^2)+((L12-L6)^2)+((M12-M6)^2)+((N12-N6)^2)+((O12-O6)^2)+((P12-P6)^2)+((Q12-Q6)^2)+((R12-R6)^2)+((S12-S6)^2)+((T12-T6)^2)+((U12-U6)^2)+((V12-V6)^2)+((W12-W6)^2)+((X12-X6)^2)+((Y12-Y6)^2)+((Z12-Z6)^2)+((AA12-AA6)^2)+((AB12-AB6)^2)+((AC12-AC6)^2)+((AD12-AD6)^2)+((AE12-AE6)^2)+((AF12-AF6)^2)+((AG12-AG6)^2)+((AH12-AH6)^2)+((AI12-AI6)^2)+((AJ12-AJ6)^2)</f>
-        <v>4534.179995251453</v>
+        <v>6770.883610738927</v>
       </c>
       <c r="AO12">
         <v>2</v>
@@ -6796,159 +11442,159 @@
     </row>
     <row r="13" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*D$2)-1))))</f>
-        <v>99.906757775380285</v>
+        <v>99.92496183235977</v>
       </c>
       <c r="E13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*E$2)-1))))</f>
-        <v>97.700371111597207</v>
+        <v>98.144844991722579</v>
       </c>
       <c r="F13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*F$2)-1))))</f>
-        <v>95.464844614338659</v>
+        <v>96.331457267805646</v>
       </c>
       <c r="G13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*G$2)-1))))</f>
-        <v>91.178004448682742</v>
+        <v>92.825665398776948</v>
       </c>
       <c r="H13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*H$2)-1))))</f>
-        <v>83.288409442527339</v>
+        <v>86.269819936095985</v>
       </c>
       <c r="I13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*I$2)-1))))</f>
-        <v>76.219715696928063</v>
+        <v>80.271972882095639</v>
       </c>
       <c r="J13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*J$2)-1))))</f>
-        <v>69.875116066693408</v>
+        <v>74.778180604136821</v>
       </c>
       <c r="K13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*K$2)-1))))</f>
-        <v>64.170397588332065</v>
+        <v>69.740263681990541</v>
       </c>
       <c r="L13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*L$2)-1))))</f>
-        <v>59.032164422165643</v>
+        <v>65.115137643060208</v>
       </c>
       <c r="M13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*M$2)-1))))</f>
-        <v>54.396329566472744</v>
+        <v>60.864227132838231</v>
       </c>
       <c r="N13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*N$2)-1))))</f>
-        <v>50.206832149208637</v>
+        <v>56.952952450117401</v>
       </c>
       <c r="O13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*O$2)-1))))</f>
-        <v>46.414544429425519</v>
+        <v>53.350278929164794</v>
       </c>
       <c r="P13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*P$2)-1))))</f>
-        <v>42.976338662545047</v>
+        <v>50.028320974807819</v>
       </c>
       <c r="Q13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*Q$2)-1))))</f>
-        <v>39.854288943880348</v>
+        <v>46.96199368651012</v>
       </c>
       <c r="R13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*R$2)-1))))</f>
-        <v>37.014987238988354</v>
+        <v>44.128705973677775</v>
       </c>
       <c r="S13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*S$2)-1))))</f>
-        <v>34.428956195703414</v>
+        <v>41.508089891543065</v>
       </c>
       <c r="T13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*T$2)-1))))</f>
-        <v>32.070144139117332</v>
+        <v>39.081761635988634</v>
       </c>
       <c r="U13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*U$2)-1))))</f>
-        <v>29.915489981240231</v>
+        <v>36.833110244263992</v>
       </c>
       <c r="V13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*V$2)-1))))</f>
-        <v>27.944547716107401</v>
+        <v>34.747110571617462</v>
       </c>
       <c r="W13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*W$2)-1))))</f>
-        <v>26.139161787538516</v>
+        <v>32.810157564015988</v>
       </c>
       <c r="X13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*X$2)-1))))</f>
-        <v>24.483185966833851</v>
+        <v>31.009919235014266</v>
       </c>
       <c r="Y13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*Y$2)-1))))</f>
-        <v>22.962239507400398</v>
+        <v>29.335206089493216</v>
       </c>
       <c r="Z13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*Z$2)-1))))</f>
-        <v>21.563495290348605</v>
+        <v>27.775855026081942</v>
       </c>
       <c r="AA13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AA$2)-1))))</f>
-        <v>20.275495470455756</v>
+        <v>26.322626000114983</v>
       </c>
       <c r="AB13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AB$2)-1))))</f>
-        <v>19.087990801043883</v>
+        <v>24.967109945498407</v>
       </c>
       <c r="AC13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AC$2)-1))))</f>
-        <v>17.991800380279148</v>
+        <v>23.70164664157971</v>
       </c>
       <c r="AD13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AD$2)-1))))</f>
-        <v>16.978689037525331</v>
+        <v>22.5192513740617</v>
       </c>
       <c r="AE13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AE$2)-1))))</f>
-        <v>16.0412599810379</v>
+        <v>21.4135493806039</v>
       </c>
       <c r="AF13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AF$2)-1))))</f>
-        <v>15.172860669376661</v>
+        <v>20.37871719495466</v>
       </c>
       <c r="AG13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AG$2)-1))))</f>
-        <v>14.367500158331966</v>
+        <v>19.409430110766106</v>
       </c>
       <c r="AH13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AH$2)-1))))</f>
-        <v>13.619776421130478</v>
+        <v>18.50081507981756</v>
       </c>
       <c r="AI13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AI$2)-1))))</f>
-        <v>12.924812349067523</v>
+        <v>17.648408441059896</v>
       </c>
       <c r="AJ13" s="2">
         <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AJ$2)-1))))</f>
-        <v>12.278199318228278</v>
+        <v>16.848117948281267</v>
       </c>
       <c r="AK13">
-        <v>99.999999999573774</v>
+        <v>99.999982709476711</v>
       </c>
       <c r="AL13">
-        <v>2.02587890625E-6</v>
+        <v>1.6298023896461607E-6</v>
       </c>
       <c r="AM13" s="2">
-        <f>1-(AN13/DEVSQ(D13:AJ13))</f>
-        <v>0.8099191785457962</v>
+        <f t="shared" ref="AM12:AM14" si="0">1-(AN13/DEVSQ(D13:AJ13))</f>
+        <v>0.82681133860289158</v>
       </c>
       <c r="AN13" s="2">
         <f>((D13-D7)^2)+((E13-E7)^2)+((F13-F7)^2)+((G13-G7)^2)+((H13-H7)^2)+((I13-I7)^2)+((J13-J7)^2)+((K13-K7)^2)+((L13-L7)^2)+((M13-M7)^2)+((N13-N7)^2)+((O13-O7)^2)+((P13-P7)^2)+((Q13-Q7)^2)+((R13-R7)^2)+((S13-S7)^2)+((T13-T7)^2)+((U13-U7)^2)+((V13-V7)^2)+((W13-W7)^2)+((X13-X7)^2)+((Y13-Y7)^2)+((Z13-Z7)^2)+((AA13-AA7)^2)+((AB13-AB7)^2)+((AC13-AC7)^2)+((AD13-AD7)^2)+((AE13-AE7)^2)+((AF13-AF7)^2)+((AG13-AG7)^2)+((AH13-AH7)^2)+((AI13-AI7)^2)+((AJ13-AJ7)^2)</f>
-        <v>4783.6969272319075</v>
+        <v>3950.4934789492077</v>
       </c>
       <c r="AO13">
         <v>2</v>
@@ -6956,159 +11602,159 @@
     </row>
     <row r="14" spans="1:41" s="3" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*D$2)-1))))</f>
-        <v>99.906757775380285</v>
+        <v>99.930990485665433</v>
       </c>
       <c r="E14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*E$2)-1))))</f>
-        <v>97.700371111597207</v>
+        <v>98.292021747994667</v>
       </c>
       <c r="F14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*F$2)-1))))</f>
-        <v>95.464844614338659</v>
+        <v>96.619441844517311</v>
       </c>
       <c r="G14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*G$2)-1))))</f>
-        <v>91.178004448682742</v>
+        <v>93.377143185865066</v>
       </c>
       <c r="H14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*H$2)-1))))</f>
-        <v>83.288409442527339</v>
+        <v>87.281856888960405</v>
       </c>
       <c r="I14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*I$2)-1))))</f>
-        <v>76.219715696928063</v>
+        <v>81.666434306606604</v>
       </c>
       <c r="J14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*J$2)-1))))</f>
-        <v>69.875116066693408</v>
+        <v>76.487936125291014</v>
       </c>
       <c r="K14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*K$2)-1))))</f>
-        <v>64.170397588332065</v>
+        <v>71.707672849454397</v>
       </c>
       <c r="L14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*L$2)-1))))</f>
-        <v>59.032164422165643</v>
+        <v>67.290747491698994</v>
       </c>
       <c r="M14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*M$2)-1))))</f>
-        <v>54.396329566472744</v>
+        <v>63.205651131348084</v>
       </c>
       <c r="N14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*N$2)-1))))</f>
-        <v>50.206832149208637</v>
+        <v>59.423904832789916</v>
       </c>
       <c r="O14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*O$2)-1))))</f>
-        <v>46.414544429425519</v>
+        <v>55.919742262467935</v>
       </c>
       <c r="P14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*P$2)-1))))</f>
-        <v>42.976338662545047</v>
+        <v>52.669828074753632</v>
       </c>
       <c r="Q14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*Q$2)-1))))</f>
-        <v>39.854288943880348</v>
+        <v>49.65300776889611</v>
       </c>
       <c r="R14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*R$2)-1))))</f>
-        <v>37.014987238988354</v>
+        <v>46.850085265942546</v>
       </c>
       <c r="S14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*S$2)-1))))</f>
-        <v>34.428956195703414</v>
+        <v>44.243624928013119</v>
       </c>
       <c r="T14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*T$2)-1))))</f>
-        <v>32.070144139117332</v>
+        <v>41.817775152866986</v>
       </c>
       <c r="U14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*U$2)-1))))</f>
-        <v>29.915489981240231</v>
+        <v>39.558111033081616</v>
       </c>
       <c r="V14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*V$2)-1))))</f>
-        <v>27.944547716107401</v>
+        <v>37.451493878876853</v>
       </c>
       <c r="W14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*W$2)-1))))</f>
-        <v>26.139161787538516</v>
+        <v>35.48594567306175</v>
       </c>
       <c r="X14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*X$2)-1))))</f>
-        <v>24.483185966833851</v>
+        <v>33.65053676125266</v>
       </c>
       <c r="Y14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*Y$2)-1))))</f>
-        <v>22.962239507400398</v>
+        <v>31.935285285117562</v>
       </c>
       <c r="Z14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*Z$2)-1))))</f>
-        <v>21.563495290348605</v>
+        <v>30.331067044984316</v>
       </c>
       <c r="AA14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AA$2)-1))))</f>
-        <v>20.275495470455756</v>
+        <v>28.829534634185006</v>
       </c>
       <c r="AB14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AB$2)-1))))</f>
-        <v>19.087990801043883</v>
+        <v>27.423044823982472</v>
       </c>
       <c r="AC14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AC$2)-1))))</f>
-        <v>17.991800380279148</v>
+        <v>26.104593297415263</v>
       </c>
       <c r="AD14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AD$2)-1))))</f>
-        <v>16.978689037525331</v>
+        <v>24.867755935122453</v>
       </c>
       <c r="AE14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AE$2)-1))))</f>
-        <v>16.0412599810379</v>
+        <v>23.70663594808801</v>
       </c>
       <c r="AF14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AF$2)-1))))</f>
-        <v>15.172860669376661</v>
+        <v>22.615816232931227</v>
       </c>
       <c r="AG14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AG$2)-1))))</f>
-        <v>14.367500158331966</v>
+        <v>21.590316396297709</v>
       </c>
       <c r="AH14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AH$2)-1))))</f>
-        <v>13.619776421130478</v>
+        <v>20.625553957317528</v>
       </c>
       <c r="AI14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AI$2)-1))))</f>
-        <v>12.924812349067523</v>
+        <v>19.71730929206538</v>
       </c>
       <c r="AJ14" s="4">
         <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AJ$2)-1))))</f>
-        <v>12.278199318228278</v>
+        <v>18.861693932419648</v>
       </c>
       <c r="AK14" s="3">
-        <v>99.999999999573774</v>
+        <v>99.999999998578076</v>
       </c>
       <c r="AL14" s="3">
-        <v>2.02587890625E-6</v>
+        <v>1.4991521996876805E-6</v>
       </c>
       <c r="AM14" s="4">
-        <f>1-(AN14/DEVSQ(D14:AJ14))</f>
-        <v>0.8099191785457962</v>
+        <f t="shared" si="0"/>
+        <v>0.81124151712492298</v>
       </c>
       <c r="AN14" s="4">
         <f>((D14-D8)^2)+((E14-E8)^2)+((F14-F8)^2)+((G14-G8)^2)+((H14-H8)^2)+((I14-I8)^2)+((J14-J8)^2)+((K14-K8)^2)+((L14-L8)^2)+((M14-M8)^2)+((N14-N8)^2)+((O14-O8)^2)+((P14-P8)^2)+((Q14-Q8)^2)+((R14-R8)^2)+((S14-S8)^2)+((T14-T8)^2)+((U14-U8)^2)+((V14-V8)^2)+((W14-W8)^2)+((X14-X8)^2)+((Y14-Y8)^2)+((Z14-Z8)^2)+((AA14-AA8)^2)+((AB14-AB8)^2)+((AC14-AC8)^2)+((AD14-AD8)^2)+((AE14-AE8)^2)+((AF14-AF8)^2)+((AG14-AG8)^2)+((AH14-AH8)^2)+((AI14-AI8)^2)+((AJ14-AJ8)^2)</f>
-        <v>4783.6969272319075</v>
+        <v>4107.9661701457353</v>
       </c>
       <c r="AO14" s="3">
         <v>2</v>
@@ -7116,13 +11762,13 @@
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D15">
         <v>96.981099999999998</v>
@@ -7224,27 +11870,27 @@
         <v>34</v>
       </c>
       <c r="AK15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AL15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AM15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AO15" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>40</v>
-      </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>46</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
       </c>
       <c r="D16">
         <v>99.615384615384613</v>
@@ -7346,30 +11992,30 @@
         <v>5.5192307692307692</v>
       </c>
       <c r="AK16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AL16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AO16" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D17">
         <v>96.924800000000005</v>
@@ -7471,30 +12117,30 @@
         <v>21.875</v>
       </c>
       <c r="AK17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AO17" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D18">
         <v>97.419399999999996</v>
@@ -7596,30 +12242,30 @@
         <v>23.064499999999999</v>
       </c>
       <c r="AK18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AO18" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C19" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="D19">
         <v>96.981099999999998</v>
@@ -7721,30 +12367,30 @@
         <v>34</v>
       </c>
       <c r="AK19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AL19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AO19" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:41" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="D20" s="1">
         <v>96.981099999999998</v>
@@ -7846,176 +12492,176 @@
         <v>34</v>
       </c>
       <c r="AK20" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AL20" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AM20" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AN20" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="AO20" s="1" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21:D26" si="0">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*D$2)-1))))</f>
-        <v>99.906757775380285</v>
+        <f t="shared" ref="D21:D26" si="1">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*D$2)-1))))</f>
+        <v>99.924326158897017</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ref="E21:S26" si="1">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*E$2)-1))))</f>
-        <v>97.700371111597207</v>
+        <f t="shared" ref="E21:S26" si="2">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*E$2)-1))))</f>
+        <v>98.128893106551288</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="1"/>
-        <v>95.464844614338659</v>
+        <f t="shared" si="2"/>
+        <v>96.300256855417274</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
-        <v>91.178004448682742</v>
+        <f t="shared" si="2"/>
+        <v>92.766019374729709</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="1"/>
-        <v>83.288409442527339</v>
+        <f t="shared" si="2"/>
+        <v>86.160772428094305</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="1"/>
-        <v>76.219715696928063</v>
+        <f t="shared" si="2"/>
+        <v>80.122283288967367</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="1"/>
-        <v>69.875116066693408</v>
+        <f t="shared" si="2"/>
+        <v>74.595321911313832</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="1"/>
-        <v>64.170397588332065</v>
+        <f t="shared" si="2"/>
+        <v>69.530606852786974</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="1"/>
-        <v>59.032164422165643</v>
+        <f t="shared" si="2"/>
+        <v>64.884109154755919</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="1"/>
-        <v>54.396329566472744</v>
+        <f t="shared" si="2"/>
+        <v>60.616443684363396</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="1"/>
-        <v>50.206832149208637</v>
+        <f t="shared" si="2"/>
+        <v>56.692336243762689</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="1"/>
-        <v>46.414544429425519</v>
+        <f t="shared" si="2"/>
+        <v>53.080156404580826</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="1"/>
-        <v>42.976338662545047</v>
+        <f t="shared" si="2"/>
+        <v>49.751507432964615</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="1"/>
-        <v>39.854288943880348</v>
+        <f t="shared" si="2"/>
+        <v>46.680865870480503</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="1"/>
-        <v>37.014987238988354</v>
+        <f t="shared" si="2"/>
+        <v>43.845264360650866</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="1"/>
-        <v>34.428956195703414</v>
+        <f t="shared" si="2"/>
+        <v>41.224012186868627</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" ref="T21:AI26" si="2">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*T$2)-1))))</f>
-        <v>32.070144139117332</v>
+        <f t="shared" ref="T21:AI26" si="3">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*T$2)-1))))</f>
+        <v>38.798448737399113</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="2"/>
-        <v>29.915489981240231</v>
+        <f t="shared" si="3"/>
+        <v>36.551725756139724</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="2"/>
-        <v>27.944547716107401</v>
+        <f t="shared" si="3"/>
+        <v>34.468614789763393</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="2"/>
-        <v>26.139161787538516</v>
+        <f t="shared" si="3"/>
+        <v>32.535336716325489</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="2"/>
-        <v>24.483185966833851</v>
+        <f t="shared" si="3"/>
+        <v>30.739410648773895</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="2"/>
-        <v>22.962239507400398</v>
+        <f t="shared" si="3"/>
+        <v>29.06951985872746</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="2"/>
-        <v>21.563495290348605</v>
+        <f t="shared" si="3"/>
+        <v>27.515392669559059</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="2"/>
-        <v>20.275495470455756</v>
+        <f t="shared" si="3"/>
+        <v>26.067696530180861</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="2"/>
-        <v>19.087990801043883</v>
+        <f t="shared" si="3"/>
+        <v>24.717943707877609</v>
       </c>
       <c r="AC21" s="2">
-        <f t="shared" si="2"/>
-        <v>17.991800380279148</v>
+        <f t="shared" si="3"/>
+        <v>23.458407235089865</v>
       </c>
       <c r="AD21" s="2">
-        <f t="shared" si="2"/>
-        <v>16.978689037525331</v>
+        <f t="shared" si="3"/>
+        <v>22.282045915485512</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" si="2"/>
-        <v>16.0412599810379</v>
+        <f t="shared" si="3"/>
+        <v>21.182437342621185</v>
       </c>
       <c r="AF21" s="2">
-        <f t="shared" si="2"/>
-        <v>15.172860669376661</v>
+        <f t="shared" si="3"/>
+        <v>20.153718013100271</v>
       </c>
       <c r="AG21" s="2">
-        <f t="shared" si="2"/>
-        <v>14.367500158331966</v>
+        <f t="shared" si="3"/>
+        <v>19.190529728040353</v>
       </c>
       <c r="AH21" s="2">
-        <f t="shared" si="2"/>
-        <v>13.619776421130478</v>
+        <f t="shared" si="3"/>
+        <v>18.287971574152799</v>
       </c>
       <c r="AI21" s="2">
-        <f t="shared" si="2"/>
-        <v>12.924812349067523</v>
+        <f t="shared" si="3"/>
+        <v>17.441556860760254</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" ref="AJ21:AJ26" si="3">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*AJ$2)-1))))</f>
-        <v>12.278199318228278</v>
+        <f t="shared" ref="AJ21:AJ26" si="4">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*AJ$2)-1))))</f>
+        <v>16.647174463314581</v>
       </c>
       <c r="AK21">
         <v>99.999999999573774</v>
       </c>
       <c r="AL21">
-        <v>2.02587890625E-6</v>
+        <v>1.6439937638597088E-6</v>
       </c>
       <c r="AM21" s="2">
-        <f t="shared" ref="AM21" si="4">1-(AN21/DEVSQ(D21:AJ21))</f>
-        <v>0.81317427996633485</v>
+        <f t="shared" ref="AM21" si="5">1-(AN21/DEVSQ(D21:AJ21))</f>
+        <v>0.83003398746966028</v>
       </c>
       <c r="AN21" s="2">
         <f>((D21-D15)^2)+((E21-E15)^2)+((F21-F15)^2)+((G21-G15)^2)+((H21-H15)^2)+((I21-I15)^2)+((J21-J15)^2)+((K21-K15)^2)+((L21-L15)^2)+((M21-M15)^2)+((N21-N15)^2)+((O21-O15)^2)+((P21-P15)^2)+((Q21-Q15)^2)+((R21-R15)^2)+((S21-S15)^2)+((T21-T15)^2)+((U21-U15)^2)+((V21-V15)^2)+((W21-W15)^2)+((X21-X15)^2)+((Y21-Y15)^2)+((Z21-Z15)^2)+((AA21-AA15)^2)+((AB21-AB15)^2)+((AC21-AC15)^2)+((AD21-AD15)^2)+((AE21-AE15)^2)+((AF21-AF15)^2)+((AG21-AG15)^2)+((AH21-AH15)^2)+((AI21-AI15)^2)+((AJ21-AJ15)^2)</f>
-        <v>4701.7769389651758</v>
+        <v>3894.7785329694138</v>
       </c>
       <c r="AO21">
         <v>2</v>
@@ -8023,159 +12669,159 @@
     </row>
     <row r="22" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="0"/>
-        <v>99.906757775380285</v>
+        <f t="shared" si="1"/>
+        <v>99.847496371347148</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="1"/>
-        <v>97.700371111597207</v>
+        <f t="shared" si="2"/>
+        <v>96.270942344892575</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="1"/>
-        <v>95.464844614338659</v>
+        <f t="shared" si="2"/>
+        <v>92.710014640951243</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="1"/>
-        <v>91.178004448682742</v>
+        <f t="shared" si="2"/>
+        <v>86.058471435124119</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="1"/>
-        <v>83.288409442527339</v>
+        <f t="shared" si="2"/>
+        <v>74.424031419236726</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="1"/>
-        <v>76.219715696928063</v>
+        <f t="shared" si="2"/>
+        <v>64.667992293928549</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="1"/>
-        <v>69.875116066693408</v>
+        <f t="shared" si="2"/>
+        <v>56.448854745851293</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="1"/>
-        <v>64.170397588332065</v>
+        <f t="shared" si="2"/>
+        <v>49.493207155605759</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="1"/>
-        <v>59.032164422165643</v>
+        <f t="shared" si="2"/>
+        <v>43.581082321982933</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="1"/>
-        <v>54.396329566472744</v>
+        <f t="shared" si="2"/>
+        <v>38.534672607317724</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="1"/>
-        <v>50.206832149208637</v>
+        <f t="shared" si="2"/>
+        <v>34.209588989511353</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="1"/>
-        <v>46.414544429425519</v>
+        <f t="shared" si="2"/>
+        <v>30.488057048665539</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="1"/>
-        <v>42.976338662545047</v>
+        <f t="shared" si="2"/>
+        <v>27.273595185851132</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="1"/>
-        <v>39.854288943880348</v>
+        <f t="shared" si="2"/>
+        <v>24.486832688982219</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="1"/>
-        <v>37.014987238988354</v>
+        <f t="shared" si="2"/>
+        <v>22.062208542448627</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="1"/>
-        <v>34.428956195703414</v>
+        <f t="shared" si="2"/>
+        <v>19.945353944365273</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="2"/>
-        <v>32.070144139117332</v>
+        <f t="shared" si="3"/>
+        <v>18.091007982069286</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" si="2"/>
-        <v>29.915489981240231</v>
+        <f t="shared" si="3"/>
+        <v>16.461350902706492</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="2"/>
-        <v>27.944547716107401</v>
+        <f t="shared" si="3"/>
+        <v>15.024665871013116</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="2"/>
-        <v>26.139161787538516</v>
+        <f t="shared" si="3"/>
+        <v>13.754260203070411</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="2"/>
-        <v>24.483185966833851</v>
+        <f t="shared" si="3"/>
+        <v>12.627592399799898</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" si="2"/>
-        <v>22.962239507400398</v>
+        <f t="shared" si="3"/>
+        <v>11.625563056795077</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="2"/>
-        <v>21.563495290348605</v>
+        <f t="shared" si="3"/>
+        <v>10.731936773037006</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="2"/>
-        <v>20.275495470455756</v>
+        <f t="shared" si="3"/>
+        <v>9.9328691726024001</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="2"/>
-        <v>19.087990801043883</v>
+        <f t="shared" si="3"/>
+        <v>9.2165185792035906</v>
       </c>
       <c r="AC22" s="2">
-        <f t="shared" si="2"/>
-        <v>17.991800380279148</v>
+        <f t="shared" si="3"/>
+        <v>8.5727261107120523</v>
       </c>
       <c r="AD22" s="2">
-        <f t="shared" si="2"/>
-        <v>16.978689037525331</v>
+        <f t="shared" si="3"/>
+        <v>7.9927512671837011</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" si="2"/>
-        <v>16.0412599810379</v>
+        <f t="shared" si="3"/>
+        <v>7.4690526817483507</v>
       </c>
       <c r="AF22" s="2">
-        <f t="shared" si="2"/>
-        <v>15.172860669376661</v>
+        <f t="shared" si="3"/>
+        <v>6.995105749266739</v>
       </c>
       <c r="AG22" s="2">
-        <f t="shared" si="2"/>
-        <v>14.367500158331966</v>
+        <f t="shared" si="3"/>
+        <v>6.5652504653749686</v>
       </c>
       <c r="AH22" s="2">
-        <f t="shared" si="2"/>
-        <v>13.619776421130478</v>
+        <f t="shared" si="3"/>
+        <v>6.174564092415733</v>
       </c>
       <c r="AI22" s="2">
-        <f t="shared" si="2"/>
-        <v>12.924812349067523</v>
+        <f t="shared" si="3"/>
+        <v>5.8187542911988936</v>
       </c>
       <c r="AJ22" s="2">
         <f>$AK22 * (10^(($AO22*(EXP(-$AL22*$AK22*AJ$2)-1))))</f>
-        <v>12.278199318228278</v>
+        <v>5.4940691745141468</v>
       </c>
       <c r="AK22">
         <v>99.999999999573774</v>
       </c>
       <c r="AL22">
-        <v>2.02587890625E-6</v>
+        <v>3.3146512010520308E-6</v>
       </c>
       <c r="AM22" s="2">
         <f>1-(AN22/DEVSQ(D22:AJ22))</f>
-        <v>0.79441251247454203</v>
+        <v>0.97834961602072101</v>
       </c>
       <c r="AN22" s="2">
         <f>((D22-D16)^2)+((E22-E16)^2)+((F22-F16)^2)+((G22-G16)^2)+((H22-H16)^2)+((I22-I16)^2)+((J22-J16)^2)+((K22-K16)^2)+((L22-L16)^2)+((M22-M16)^2)+((N22-N16)^2)+((O22-O16)^2)+((P22-P16)^2)+((Q22-Q16)^2)+((R22-R16)^2)+((S22-S16)^2)+((T22-T16)^2)+((U22-U16)^2)+((V22-V16)^2)+((W22-W16)^2)+((X22-X16)^2)+((Y22-Y16)^2)+((Z22-Z16)^2)+((AA22-AA16)^2)+((AB22-AB16)^2)+((AC22-AC16)^2)+((AD22-AD16)^2)+((AE22-AE16)^2)+((AF22-AF16)^2)+((AG22-AG16)^2)+((AH22-AH16)^2)+((AI22-AI16)^2)+((AJ22-AJ16)^2)</f>
-        <v>5173.9477177596718</v>
+        <v>605.40036775497833</v>
       </c>
       <c r="AO22">
         <v>2</v>
@@ -8183,159 +12829,159 @@
     </row>
     <row r="23" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="0"/>
-        <v>99.906757775380285</v>
+        <f t="shared" si="1"/>
+        <v>99.886315725914699</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="1"/>
-        <v>97.700371111597207</v>
+        <f t="shared" si="2"/>
+        <v>97.204507092653799</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="1"/>
-        <v>95.464844614338659</v>
+        <f t="shared" si="2"/>
+        <v>94.503657523416038</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="1"/>
-        <v>91.178004448682742</v>
+        <f t="shared" si="2"/>
+        <v>89.371411976613956</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="1"/>
-        <v>83.288409442527339</v>
+        <f t="shared" si="2"/>
+        <v>80.091794830751709</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="1"/>
-        <v>76.219715696928063</v>
+        <f t="shared" si="2"/>
+        <v>71.967955344757087</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="1"/>
-        <v>69.875116066693408</v>
+        <f t="shared" si="2"/>
+        <v>64.837115671860289</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="1"/>
-        <v>64.170397588332065</v>
+        <f t="shared" si="2"/>
+        <v>58.561735405654318</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="1"/>
-        <v>59.032164422165643</v>
+        <f t="shared" si="2"/>
+        <v>53.02527600361865</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="1"/>
-        <v>54.396329566472744</v>
+        <f t="shared" si="2"/>
+        <v>48.128725767419354</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="1"/>
-        <v>50.206832149208637</v>
+        <f t="shared" si="2"/>
+        <v>43.787740517063341</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="1"/>
-        <v>46.414544429425519</v>
+        <f t="shared" si="2"/>
+        <v>39.930284169313069</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="1"/>
-        <v>42.976338662545047</v>
+        <f t="shared" si="2"/>
+        <v>36.494676388566852</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="1"/>
-        <v>39.854288943880348</v>
+        <f t="shared" si="2"/>
+        <v>33.427972663094884</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="1"/>
-        <v>37.014987238988354</v>
+        <f t="shared" si="2"/>
+        <v>30.684616607105223</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="1"/>
-        <v>34.428956195703414</v>
+        <f t="shared" si="2"/>
+        <v>28.225315801724015</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="2"/>
-        <v>32.070144139117332</v>
+        <f t="shared" si="3"/>
+        <v>26.01610168858144</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" si="2"/>
-        <v>29.915489981240231</v>
+        <f t="shared" si="3"/>
+        <v>24.027541403635965</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="2"/>
-        <v>27.944547716107401</v>
+        <f t="shared" si="3"/>
+        <v>22.234075365386005</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="2"/>
-        <v>26.139161787538516</v>
+        <f t="shared" si="3"/>
+        <v>20.613459207936515</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="2"/>
-        <v>24.483185966833851</v>
+        <f t="shared" si="3"/>
+        <v>19.146292509132671</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="2"/>
-        <v>22.962239507400398</v>
+        <f t="shared" si="3"/>
+        <v>17.815619891299932</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="2"/>
-        <v>21.563495290348605</v>
+        <f t="shared" si="3"/>
+        <v>16.606592612612584</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" si="2"/>
-        <v>20.275495470455756</v>
+        <f t="shared" si="3"/>
+        <v>15.506180836142178</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="2"/>
-        <v>19.087990801043883</v>
+        <f t="shared" si="3"/>
+        <v>14.502928452924237</v>
       </c>
       <c r="AC23" s="2">
-        <f t="shared" si="2"/>
-        <v>17.991800380279148</v>
+        <f t="shared" si="3"/>
+        <v>13.586743718016526</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" si="2"/>
-        <v>16.978689037525331</v>
+        <f t="shared" si="3"/>
+        <v>12.748720092902387</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" si="2"/>
-        <v>16.0412599810379</v>
+        <f t="shared" si="3"/>
+        <v>11.980982620498699</v>
       </c>
       <c r="AF23" s="2">
-        <f t="shared" si="2"/>
-        <v>15.172860669376661</v>
+        <f t="shared" si="3"/>
+        <v>11.276555928029508</v>
       </c>
       <c r="AG23" s="2">
-        <f t="shared" si="2"/>
-        <v>14.367500158331966</v>
+        <f t="shared" si="3"/>
+        <v>10.629250588367608</v>
       </c>
       <c r="AH23" s="2">
-        <f t="shared" si="2"/>
-        <v>13.619776421130478</v>
+        <f t="shared" si="3"/>
+        <v>10.033565096538025</v>
       </c>
       <c r="AI23" s="2">
-        <f t="shared" si="2"/>
-        <v>12.924812349067523</v>
+        <f t="shared" si="3"/>
+        <v>9.4846011546639666</v>
       </c>
       <c r="AJ23" s="2">
-        <f t="shared" si="3"/>
-        <v>12.278199318228278</v>
+        <f t="shared" si="4"/>
+        <v>8.9779903217308217</v>
       </c>
       <c r="AK23">
         <v>99.999999999573774</v>
       </c>
       <c r="AL23">
-        <v>2.02587890625E-6</v>
+        <v>2.4703320206335154E-6</v>
       </c>
       <c r="AM23" s="2">
         <f>1-(AN23/DEVSQ(D23:AJ23))</f>
-        <v>0.90036959338891021</v>
+        <v>0.9322850769036628</v>
       </c>
       <c r="AN23" s="2">
         <f>((D23-D17)^2)+((E23-E17)^2)+((F23-F17)^2)+((G23-G17)^2)+((H23-H17)^2)+((I23-I17)^2)+((J23-J17)^2)+((K23-K17)^2)+((L23-L17)^2)+((M23-M17)^2)+((N23-N17)^2)+((O23-O17)^2)+((P23-P17)^2)+((Q23-Q17)^2)+((R23-R17)^2)+((S23-S17)^2)+((T23-T17)^2)+((U23-U17)^2)+((V23-V17)^2)+((W23-W17)^2)+((X23-X17)^2)+((Y23-Y17)^2)+((Z23-Z17)^2)+((AA23-AA17)^2)+((AB23-AB17)^2)+((AC23-AC17)^2)+((AD23-AD17)^2)+((AE23-AE17)^2)+((AF23-AF17)^2)+((AG23-AG17)^2)+((AH23-AH17)^2)+((AI23-AI17)^2)+((AJ23-AJ17)^2)</f>
-        <v>2507.3632695719557</v>
+        <v>1810.8554969975194</v>
       </c>
       <c r="AO23">
         <v>2</v>
@@ -8343,159 +12989,159 @@
     </row>
     <row r="24" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="0"/>
-        <v>99.906757775380285</v>
+        <f t="shared" si="1"/>
+        <v>99.909496812605852</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="1"/>
-        <v>97.700371111597207</v>
+        <f t="shared" si="2"/>
+        <v>97.767036576241367</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="1"/>
-        <v>95.464844614338659</v>
+        <f t="shared" si="2"/>
+        <v>95.594520011771152</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="1"/>
-        <v>91.178004448682742</v>
+        <f t="shared" si="2"/>
+        <v>91.423412448805252</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="1"/>
-        <v>83.288409442527339</v>
+        <f t="shared" si="2"/>
+        <v>83.728462667845363</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="1"/>
-        <v>76.219715696928063</v>
+        <f t="shared" si="2"/>
+        <v>76.812571496907694</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="1"/>
-        <v>69.875116066693408</v>
+        <f t="shared" si="2"/>
+        <v>70.586315422591852</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="1"/>
-        <v>64.170397588332065</v>
+        <f t="shared" si="2"/>
+        <v>64.971597669212088</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="1"/>
-        <v>59.032164422165643</v>
+        <f t="shared" si="2"/>
+        <v>59.900091717772646</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="1"/>
-        <v>54.396329566472744</v>
+        <f t="shared" si="2"/>
+        <v>55.311914145747309</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="1"/>
-        <v>50.206832149208637</v>
+        <f t="shared" si="2"/>
+        <v>51.154490878241823</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="1"/>
-        <v>46.414544429425519</v>
+        <f t="shared" si="2"/>
+        <v>47.381586877221494</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="1"/>
-        <v>42.976338662545047</v>
+        <f t="shared" si="2"/>
+        <v>43.952474201264835</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="1"/>
-        <v>39.854288943880348</v>
+        <f t="shared" si="2"/>
+        <v>40.831217430693194</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="1"/>
-        <v>37.014987238988354</v>
+        <f t="shared" si="2"/>
+        <v>37.986058823548859</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="1"/>
-        <v>34.428956195703414</v>
+        <f t="shared" si="2"/>
+        <v>35.388888369966395</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="2"/>
-        <v>32.070144139117332</v>
+        <f t="shared" si="3"/>
+        <v>33.014786246356692</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="2"/>
-        <v>29.915489981240231</v>
+        <f t="shared" si="3"/>
+        <v>30.841627118384135</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="2"/>
-        <v>27.944547716107401</v>
+        <f t="shared" si="3"/>
+        <v>28.849737369918714</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="2"/>
-        <v>26.139161787538516</v>
+        <f t="shared" si="3"/>
+        <v>27.021597698836953</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="2"/>
-        <v>24.483185966833851</v>
+        <f t="shared" si="3"/>
+        <v>25.341584664750247</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="2"/>
-        <v>22.962239507400398</v>
+        <f t="shared" si="3"/>
+        <v>23.795745735481532</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="2"/>
-        <v>21.563495290348605</v>
+        <f t="shared" si="3"/>
+        <v>22.371603188895502</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="2"/>
-        <v>20.275495470455756</v>
+        <f t="shared" si="3"/>
+        <v>21.057982909694825</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="2"/>
-        <v>19.087990801043883</v>
+        <f t="shared" si="3"/>
+        <v>19.84486469784548</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" si="2"/>
-        <v>17.991800380279148</v>
+        <f t="shared" si="3"/>
+        <v>18.723251193638561</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="2"/>
-        <v>16.978689037525331</v>
+        <f t="shared" si="3"/>
+        <v>17.685052938347646</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="2"/>
-        <v>16.0412599810379</v>
+        <f t="shared" si="3"/>
+        <v>16.722987440899757</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" si="2"/>
-        <v>15.172860669376661</v>
+        <f t="shared" si="3"/>
+        <v>15.830490419854259</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="2"/>
-        <v>14.367500158331966</v>
+        <f t="shared" si="3"/>
+        <v>15.0016376445428</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" si="2"/>
-        <v>13.619776421130478</v>
+        <f t="shared" si="3"/>
+        <v>14.231076016372086</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" si="2"/>
-        <v>12.924812349067523</v>
+        <f t="shared" si="3"/>
+        <v>13.513962716809237</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="3"/>
-        <v>12.278199318228278</v>
+        <f t="shared" si="4"/>
+        <v>12.845911407302758</v>
       </c>
       <c r="AK24">
         <v>99.999999999573774</v>
       </c>
       <c r="AL24">
-        <v>2.02587890625E-6</v>
+        <v>1.9663348903904846E-6</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" ref="AM24:AM26" si="5">1-(AN24/DEVSQ(D24:AJ24))</f>
-        <v>0.87388245193825698</v>
+        <f t="shared" ref="AM24:AM26" si="6">1-(AN24/DEVSQ(D24:AJ24))</f>
+        <v>0.87308992651531203</v>
       </c>
       <c r="AN24" s="2">
         <f>((D24-D18)^2)+((E24-E18)^2)+((F24-F18)^2)+((G24-G18)^2)+((H24-H18)^2)+((I24-I18)^2)+((J24-J18)^2)+((K24-K18)^2)+((L24-L18)^2)+((M24-M18)^2)+((N24-N18)^2)+((O24-O18)^2)+((P24-P18)^2)+((Q24-Q18)^2)+((R24-R18)^2)+((S24-S18)^2)+((T24-T18)^2)+((U24-U18)^2)+((V24-V18)^2)+((W24-W18)^2)+((X24-X18)^2)+((Y24-Y18)^2)+((Z24-Z18)^2)+((AA24-AA18)^2)+((AB24-AB18)^2)+((AC24-AC18)^2)+((AD24-AD18)^2)+((AE24-AE18)^2)+((AF24-AF18)^2)+((AG24-AG18)^2)+((AH24-AH18)^2)+((AI24-AI18)^2)+((AJ24-AJ18)^2)</f>
-        <v>3173.9558074160445</v>
+        <v>3157.4868558669559</v>
       </c>
       <c r="AO24">
         <v>2</v>
@@ -8503,159 +13149,159 @@
     </row>
     <row r="25" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="0"/>
-        <v>99.906757775380285</v>
+        <f t="shared" si="1"/>
+        <v>99.924326158897017</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="1"/>
-        <v>97.700371111597207</v>
+        <f t="shared" si="2"/>
+        <v>98.128893106551288</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="1"/>
-        <v>95.464844614338659</v>
+        <f t="shared" si="2"/>
+        <v>96.300256855417274</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="1"/>
-        <v>91.178004448682742</v>
+        <f t="shared" si="2"/>
+        <v>92.766019374729709</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="1"/>
-        <v>83.288409442527339</v>
+        <f t="shared" si="2"/>
+        <v>86.160772428094305</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="1"/>
-        <v>76.219715696928063</v>
+        <f t="shared" si="2"/>
+        <v>80.122283288967367</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="1"/>
-        <v>69.875116066693408</v>
+        <f t="shared" si="2"/>
+        <v>74.595321911313832</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="1"/>
-        <v>64.170397588332065</v>
+        <f t="shared" si="2"/>
+        <v>69.530606852786974</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="1"/>
-        <v>59.032164422165643</v>
+        <f t="shared" si="2"/>
+        <v>64.884109154755919</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="1"/>
-        <v>54.396329566472744</v>
+        <f t="shared" si="2"/>
+        <v>60.616443684363396</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="1"/>
-        <v>50.206832149208637</v>
+        <f t="shared" si="2"/>
+        <v>56.692336243762689</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="1"/>
-        <v>46.414544429425519</v>
+        <f t="shared" si="2"/>
+        <v>53.080156404580826</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="1"/>
-        <v>42.976338662545047</v>
+        <f t="shared" si="2"/>
+        <v>49.751507432964615</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="1"/>
-        <v>39.854288943880348</v>
+        <f t="shared" si="2"/>
+        <v>46.680865870480503</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="1"/>
-        <v>37.014987238988354</v>
+        <f t="shared" si="2"/>
+        <v>43.845264360650866</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="1"/>
-        <v>34.428956195703414</v>
+        <f t="shared" si="2"/>
+        <v>41.224012186868627</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="2"/>
-        <v>32.070144139117332</v>
+        <f t="shared" si="3"/>
+        <v>38.798448737399113</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" si="2"/>
-        <v>29.915489981240231</v>
+        <f t="shared" si="3"/>
+        <v>36.551725756139724</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="2"/>
-        <v>27.944547716107401</v>
+        <f t="shared" si="3"/>
+        <v>34.468614789763393</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="2"/>
-        <v>26.139161787538516</v>
+        <f t="shared" si="3"/>
+        <v>32.535336716325489</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="2"/>
-        <v>24.483185966833851</v>
+        <f t="shared" si="3"/>
+        <v>30.739410648773895</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="2"/>
-        <v>22.962239507400398</v>
+        <f t="shared" si="3"/>
+        <v>29.06951985872746</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="2"/>
-        <v>21.563495290348605</v>
+        <f t="shared" si="3"/>
+        <v>27.515392669559059</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="2"/>
-        <v>20.275495470455756</v>
+        <f t="shared" si="3"/>
+        <v>26.067696530180861</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="2"/>
-        <v>19.087990801043883</v>
+        <f t="shared" si="3"/>
+        <v>24.717943707877609</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="2"/>
-        <v>17.991800380279148</v>
+        <f t="shared" si="3"/>
+        <v>23.458407235089865</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" si="2"/>
-        <v>16.978689037525331</v>
+        <f t="shared" si="3"/>
+        <v>22.282045915485512</v>
       </c>
       <c r="AE25" s="2">
-        <f t="shared" si="2"/>
-        <v>16.0412599810379</v>
+        <f t="shared" si="3"/>
+        <v>21.182437342621185</v>
       </c>
       <c r="AF25" s="2">
-        <f t="shared" si="2"/>
-        <v>15.172860669376661</v>
+        <f t="shared" si="3"/>
+        <v>20.153718013100271</v>
       </c>
       <c r="AG25" s="2">
-        <f t="shared" si="2"/>
-        <v>14.367500158331966</v>
+        <f t="shared" si="3"/>
+        <v>19.190529728040353</v>
       </c>
       <c r="AH25" s="2">
-        <f t="shared" si="2"/>
-        <v>13.619776421130478</v>
+        <f t="shared" si="3"/>
+        <v>18.287971574152799</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" si="2"/>
-        <v>12.924812349067523</v>
+        <f t="shared" si="3"/>
+        <v>17.441556860760254</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="3"/>
-        <v>12.278199318228278</v>
+        <f t="shared" si="4"/>
+        <v>16.647174463314581</v>
       </c>
       <c r="AK25">
         <v>99.999999999573774</v>
       </c>
       <c r="AL25">
-        <v>2.02587890625E-6</v>
+        <v>1.6439937638597088E-6</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="5"/>
-        <v>0.81317427996633485</v>
+        <f t="shared" si="6"/>
+        <v>0.83003398746966028</v>
       </c>
       <c r="AN25" s="2">
         <f>((D25-D19)^2)+((E25-E19)^2)+((F25-F19)^2)+((G25-G19)^2)+((H25-H19)^2)+((I25-I19)^2)+((J25-J19)^2)+((K25-K19)^2)+((L25-L19)^2)+((M25-M19)^2)+((N25-N19)^2)+((O25-O19)^2)+((P25-P19)^2)+((Q25-Q19)^2)+((R25-R19)^2)+((S25-S19)^2)+((T25-T19)^2)+((U25-U19)^2)+((V25-V19)^2)+((W25-W19)^2)+((X25-X19)^2)+((Y25-Y19)^2)+((Z25-Z19)^2)+((AA25-AA19)^2)+((AB25-AB19)^2)+((AC25-AC19)^2)+((AD25-AD19)^2)+((AE25-AE19)^2)+((AF25-AF19)^2)+((AG25-AG19)^2)+((AH25-AH19)^2)+((AI25-AI19)^2)+((AJ25-AJ19)^2)</f>
-        <v>4701.7769389651758</v>
+        <v>3894.7785329694138</v>
       </c>
       <c r="AO25">
         <v>2</v>
@@ -8663,159 +13309,159 @@
     </row>
     <row r="26" spans="1:41" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
+        <v>46</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="0"/>
-        <v>99.906757775380285</v>
+        <f t="shared" si="1"/>
+        <v>99.924326158897017</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="1"/>
-        <v>97.700371111597207</v>
+        <f t="shared" si="2"/>
+        <v>98.128893106551288</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="1"/>
-        <v>95.464844614338659</v>
+        <f t="shared" si="2"/>
+        <v>96.300256855417274</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="1"/>
-        <v>91.178004448682742</v>
+        <f t="shared" si="2"/>
+        <v>92.766019374729709</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="1"/>
-        <v>83.288409442527339</v>
+        <f t="shared" si="2"/>
+        <v>86.160772428094305</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="1"/>
-        <v>76.219715696928063</v>
+        <f t="shared" si="2"/>
+        <v>80.122283288967367</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="1"/>
-        <v>69.875116066693408</v>
+        <f t="shared" si="2"/>
+        <v>74.595321911313832</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="1"/>
-        <v>64.170397588332065</v>
+        <f t="shared" si="2"/>
+        <v>69.530606852786974</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="1"/>
-        <v>59.032164422165643</v>
+        <f t="shared" si="2"/>
+        <v>64.884109154755919</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="1"/>
-        <v>54.396329566472744</v>
+        <f t="shared" si="2"/>
+        <v>60.616443684363396</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="1"/>
-        <v>50.206832149208637</v>
+        <f t="shared" si="2"/>
+        <v>56.692336243762689</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="1"/>
-        <v>46.414544429425519</v>
+        <f t="shared" si="2"/>
+        <v>53.080156404580826</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="1"/>
-        <v>42.976338662545047</v>
+        <f t="shared" si="2"/>
+        <v>49.751507432964615</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="1"/>
-        <v>39.854288943880348</v>
+        <f t="shared" si="2"/>
+        <v>46.680865870480503</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="1"/>
-        <v>37.014987238988354</v>
+        <f t="shared" si="2"/>
+        <v>43.845264360650866</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="1"/>
-        <v>34.428956195703414</v>
+        <f t="shared" si="2"/>
+        <v>41.224012186868627</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="2"/>
-        <v>32.070144139117332</v>
+        <f t="shared" si="3"/>
+        <v>38.798448737399113</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" si="2"/>
-        <v>29.915489981240231</v>
+        <f t="shared" si="3"/>
+        <v>36.551725756139724</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="2"/>
-        <v>27.944547716107401</v>
+        <f t="shared" si="3"/>
+        <v>34.468614789763393</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="2"/>
-        <v>26.139161787538516</v>
+        <f t="shared" si="3"/>
+        <v>32.535336716325489</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="2"/>
-        <v>24.483185966833851</v>
+        <f t="shared" si="3"/>
+        <v>30.739410648773895</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="2"/>
-        <v>22.962239507400398</v>
+        <f t="shared" si="3"/>
+        <v>29.06951985872746</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="2"/>
-        <v>21.563495290348605</v>
+        <f t="shared" si="3"/>
+        <v>27.515392669559059</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" si="2"/>
-        <v>20.275495470455756</v>
+        <f t="shared" si="3"/>
+        <v>26.067696530180861</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="2"/>
-        <v>19.087990801043883</v>
+        <f t="shared" si="3"/>
+        <v>24.717943707877609</v>
       </c>
       <c r="AC26" s="2">
-        <f t="shared" si="2"/>
-        <v>17.991800380279148</v>
+        <f t="shared" si="3"/>
+        <v>23.458407235089865</v>
       </c>
       <c r="AD26" s="2">
-        <f t="shared" si="2"/>
-        <v>16.978689037525331</v>
+        <f t="shared" si="3"/>
+        <v>22.282045915485512</v>
       </c>
       <c r="AE26" s="2">
-        <f t="shared" si="2"/>
-        <v>16.0412599810379</v>
+        <f t="shared" si="3"/>
+        <v>21.182437342621185</v>
       </c>
       <c r="AF26" s="2">
-        <f t="shared" si="2"/>
-        <v>15.172860669376661</v>
+        <f>$AK26 * (10^(($AO26*(EXP(-$AL26*$AK26*AF$2)-1))))</f>
+        <v>20.153718013100271</v>
       </c>
       <c r="AG26" s="2">
-        <f t="shared" si="2"/>
-        <v>14.367500158331966</v>
+        <f t="shared" si="3"/>
+        <v>19.190529728040353</v>
       </c>
       <c r="AH26" s="2">
-        <f t="shared" si="2"/>
-        <v>13.619776421130478</v>
+        <f t="shared" si="3"/>
+        <v>18.287971574152799</v>
       </c>
       <c r="AI26" s="2">
-        <f t="shared" si="2"/>
-        <v>12.924812349067523</v>
+        <f t="shared" si="3"/>
+        <v>17.441556860760254</v>
       </c>
       <c r="AJ26" s="2">
-        <f t="shared" si="3"/>
-        <v>12.278199318228278</v>
+        <f>$AK26 * (10^(($AO26*(EXP(-$AL26*$AK26*AJ$2)-1))))</f>
+        <v>16.647174463314581</v>
       </c>
       <c r="AK26">
         <v>99.999999999573774</v>
       </c>
       <c r="AL26">
-        <v>2.02587890625E-6</v>
+        <v>1.6439937638597088E-6</v>
       </c>
       <c r="AM26" s="2">
-        <f t="shared" si="5"/>
-        <v>0.81317427996633485</v>
+        <f>1-(AN26/DEVSQ(D26:AJ26))</f>
+        <v>0.83003398746966028</v>
       </c>
       <c r="AN26" s="2">
         <f>((D26-D20)^2)+((E26-E20)^2)+((F26-F20)^2)+((G26-G20)^2)+((H26-H20)^2)+((I26-I20)^2)+((J26-J20)^2)+((K26-K20)^2)+((L26-L20)^2)+((M26-M20)^2)+((N26-N20)^2)+((O26-O20)^2)+((P26-P20)^2)+((Q26-Q20)^2)+((R26-R20)^2)+((S26-S20)^2)+((T26-T20)^2)+((U26-U20)^2)+((V26-V20)^2)+((W26-W20)^2)+((X26-X20)^2)+((Y26-Y20)^2)+((Z26-Z20)^2)+((AA26-AA20)^2)+((AB26-AB20)^2)+((AC26-AC20)^2)+((AD26-AD20)^2)+((AE26-AE20)^2)+((AF26-AF20)^2)+((AG26-AG20)^2)+((AH26-AH20)^2)+((AI26-AI20)^2)+((AJ26-AJ20)^2)</f>
-        <v>4701.7769389651758</v>
+        <v>3894.7785329694138</v>
       </c>
       <c r="AO26">
         <v>2</v>

--- a/Data/all_aggregate_fits.xlsx
+++ b/Data/all_aggregate_fits.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidjcox/Dropbox (Personal)/Projects/CurrentProjectManuscripts/Empirical/PersonalFun/Demand for Certification/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478F9919-8645-274E-984A-C27DEC2EF661}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6669C113-CFF3-C542-8475-8A77C9FA869D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7240" yWindow="3200" windowWidth="51420" windowHeight="29920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Data/all_aggregate_fits.xlsx
+++ b/Data/all_aggregate_fits.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidjcox/Dropbox (Personal)/Projects/CurrentProjectManuscripts/Empirical/PersonalFun/Demand for Certification/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6669C113-CFF3-C542-8475-8A77C9FA869D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A260032-ED2A-0140-9062-6E0B986C84A9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7240" yWindow="3200" windowWidth="51420" windowHeight="29920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4160" yWindow="1360" windowWidth="58300" windowHeight="33340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all_aggregates" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">2</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -4218,10 +4218,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.11788471855488558"/>
-          <c:y val="0.45665868328958886"/>
-          <c:w val="0.28583847662499939"/>
-          <c:h val="0.41256867891513554"/>
+          <c:x val="0.12218726533089078"/>
+          <c:y val="0.37567493144274772"/>
+          <c:w val="0.3004670497552886"/>
+          <c:h val="0.47195680778855875"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9051,11 +9051,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.10558</cdr:x>
-      <cdr:y>0.87901</cdr:y>
+      <cdr:y>0.87766</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>0.93513</cdr:y>
+      <cdr:y>0.93378</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -9070,8 +9070,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1560688" y="8037691"/>
-          <a:ext cx="13220702" cy="513122"/>
+          <a:off x="1558235" y="8258159"/>
+          <a:ext cx="13200578" cy="528049"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -9316,11 +9316,11 @@
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
       <cdr:x>0.10558</cdr:x>
-      <cdr:y>0.87901</cdr:y>
+      <cdr:y>0.87631</cdr:y>
     </cdr:from>
     <cdr:to>
       <cdr:x>1</cdr:x>
-      <cdr:y>0.93513</cdr:y>
+      <cdr:y>0.93243</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
@@ -9335,8 +9335,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1560688" y="8037691"/>
-          <a:ext cx="13220702" cy="513122"/>
+          <a:off x="1558235" y="8245459"/>
+          <a:ext cx="13200577" cy="528049"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -9788,8 +9788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AO26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10811,135 +10811,135 @@
         <v>47</v>
       </c>
       <c r="D9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*D$2)-1))))</f>
+        <f t="shared" ref="D9:M14" si="0">$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*D$2)-1))))</f>
         <v>99.904834895174361</v>
       </c>
       <c r="E9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*E$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>97.653601849776607</v>
       </c>
       <c r="F9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*F$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>95.373934415680651</v>
       </c>
       <c r="G9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*G$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>91.006196969030356</v>
       </c>
       <c r="H9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*H$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>82.981164513402419</v>
       </c>
       <c r="I9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*I$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>75.806864911397014</v>
       </c>
       <c r="J9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*J$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>69.381104471369156</v>
       </c>
       <c r="K9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*K$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>63.615229334801718</v>
       </c>
       <c r="L9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*L$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>58.43218016100392</v>
       </c>
       <c r="M9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*M$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>53.76484634220774</v>
       </c>
       <c r="N9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*N$2)-1))))</f>
+        <f t="shared" ref="N9:W14" si="1">$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*N$2)-1))))</f>
         <v>49.554670750800454</v>
       </c>
       <c r="O9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*O$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>45.75046447868376</v>
       </c>
       <c r="P9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*P$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>42.307397954503415</v>
       </c>
       <c r="Q9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*Q$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>39.186140507892873</v>
       </c>
       <c r="R9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*R$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>36.352125123884385</v>
       </c>
       <c r="S9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*S$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>33.774918982720429</v>
       </c>
       <c r="T9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*T$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>31.427683561645704</v>
       </c>
       <c r="U9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*U$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>29.286710708082929</v>
       </c>
       <c r="V9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*V$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>27.331023276896953</v>
       </c>
       <c r="W9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*W$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>25.542030738596988</v>
       </c>
       <c r="X9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*X$2)-1))))</f>
+        <f t="shared" ref="X9:AJ14" si="2">$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*X$2)-1))))</f>
         <v>23.903231675699306</v>
       </c>
       <c r="Y9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*Y$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>22.399956344371368</v>
       </c>
       <c r="Z9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*Z$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>21.019143531442364</v>
       </c>
       <c r="AA9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AA$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>19.749146818532886</v>
       </c>
       <c r="AB9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AB$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>18.579566104657943</v>
       </c>
       <c r="AC9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AC$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>17.501100860209622</v>
       </c>
       <c r="AD9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AD$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>16.505422108507219</v>
       </c>
       <c r="AE9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AE$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>15.58506057242405</v>
       </c>
       <c r="AF9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AF$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>14.733308796446137</v>
       </c>
       <c r="AG9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AG$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>13.944135370048871</v>
       </c>
       <c r="AH9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AH$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>13.212109645754822</v>
       </c>
       <c r="AI9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AI$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>12.532335572351579</v>
       </c>
       <c r="AJ9" s="2">
-        <f>$AK9 * (10^(($AO9*(EXP(-$AL9*$AK9*AJ$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>11.900393456908317</v>
       </c>
       <c r="AK9">
@@ -10953,7 +10953,7 @@
         <v>0.82148127340270116</v>
       </c>
       <c r="AN9" s="2">
-        <f>((D9-D3)^2)+((E9-E3)^2)+((F9-F3)^2)+((G9-G3)^2)+((H9-H3)^2)+((I9-I3)^2)+((J9-J3)^2)+((K9-K3)^2)+((L9-L3)^2)+((M9-M3)^2)+((N9-N3)^2)+((O9-O3)^2)+((P9-P3)^2)+((Q9-Q3)^2)+((R9-R3)^2)+((S9-S3)^2)+((T9-T3)^2)+((U9-U3)^2)+((V9-V3)^2)+((W9-W3)^2)+((X9-X3)^2)+((Y9-Y3)^2)+((Z9-Z3)^2)+((AA9-AA3)^2)+((AB9-AB3)^2)+((AC9-AC3)^2)+((AD9-AD3)^2)+((AE9-AE3)^2)+((AF9-AF3)^2)+((AG9-AG3)^2)+((AH9-AH3)^2)+((AI9-AI3)^2)+((AJ9-AJ3)^2)</f>
+        <f t="shared" ref="AN9:AN14" si="3">((D9-D3)^2)+((E9-E3)^2)+((F9-F3)^2)+((G9-G3)^2)+((H9-H3)^2)+((I9-I3)^2)+((J9-J3)^2)+((K9-K3)^2)+((L9-L3)^2)+((M9-M3)^2)+((N9-N3)^2)+((O9-O3)^2)+((P9-P3)^2)+((Q9-Q3)^2)+((R9-R3)^2)+((S9-S3)^2)+((T9-T3)^2)+((U9-U3)^2)+((V9-V3)^2)+((W9-W3)^2)+((X9-X3)^2)+((Y9-Y3)^2)+((Z9-Z3)^2)+((AA9-AA3)^2)+((AB9-AB3)^2)+((AC9-AC3)^2)+((AD9-AD3)^2)+((AE9-AE3)^2)+((AF9-AF3)^2)+((AG9-AG3)^2)+((AH9-AH3)^2)+((AI9-AI3)^2)+((AJ9-AJ3)^2)</f>
         <v>4526.4956990053524</v>
       </c>
       <c r="AO9">
@@ -10971,135 +10971,135 @@
         <v>48</v>
       </c>
       <c r="D10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*D$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>99.791436390877152</v>
       </c>
       <c r="E10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*E$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>94.941205573884275</v>
       </c>
       <c r="F10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*F$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>90.191088545647403</v>
       </c>
       <c r="G10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*G$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>81.532809419487734</v>
       </c>
       <c r="H10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*H$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>67.08042192652465</v>
       </c>
       <c r="I10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*I$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>55.669312768242172</v>
       </c>
       <c r="J10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*J$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>46.5828528163537</v>
       </c>
       <c r="K10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*K$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>39.28866631497484</v>
       </c>
       <c r="L10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*L$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>33.387766331725174</v>
       </c>
       <c r="M10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*M$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>28.578600231117601</v>
       </c>
       <c r="N10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*N$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>24.63140188939164</v>
       </c>
       <c r="O10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*O$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>21.369734898158192</v>
       </c>
       <c r="P10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*P$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>18.657097905129568</v>
       </c>
       <c r="Q10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*Q$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>16.387124281066942</v>
       </c>
       <c r="R10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*R$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>14.476355176964805</v>
       </c>
       <c r="S10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*S$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>12.858869831326873</v>
       </c>
       <c r="T10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*T$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>11.482266671650136</v>
       </c>
       <c r="U10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*U$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>10.30463420974796</v>
       </c>
       <c r="V10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*V$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>9.2922524446350927</v>
       </c>
       <c r="W10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*W$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>8.4178371674739711</v>
       </c>
       <c r="X10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*X$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>7.6591904590878475</v>
       </c>
       <c r="Y10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*Y$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>6.9981570718966992</v>
       </c>
       <c r="Z10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*Z$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>6.4198126062637613</v>
       </c>
       <c r="AA10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AA$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>5.9118284036977444</v>
       </c>
       <c r="AB10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AB$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>5.4639719575439747</v>
       </c>
       <c r="AC10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AC$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>5.0677118369758025</v>
       </c>
       <c r="AD10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AD$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>4.7159036560377041</v>
       </c>
       <c r="AE10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AE$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>4.4025392232221066</v>
       </c>
       <c r="AF10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AF$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>4.1225451982185763</v>
       </c>
       <c r="AG10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AG$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>3.8716207347951253</v>
       </c>
       <c r="AH10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AH$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>3.6461059726967671</v>
       </c>
       <c r="AI10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AI$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>3.4428750538267217</v>
       </c>
       <c r="AJ10" s="2">
-        <f>$AK10 * (10^(($AO10*(EXP(-$AL10*$AK10*AJ$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>3.2592487229192044</v>
       </c>
       <c r="AK10">
@@ -11113,7 +11113,7 @@
         <v>0.84006659622644397</v>
       </c>
       <c r="AN10" s="2">
-        <f>((D10-D4)^2)+((E10-E4)^2)+((F10-F4)^2)+((G10-G4)^2)+((H10-H4)^2)+((I10-I4)^2)+((J10-J4)^2)+((K10-K4)^2)+((L10-L4)^2)+((M10-M4)^2)+((N10-N4)^2)+((O10-O4)^2)+((P10-P4)^2)+((Q10-Q4)^2)+((R10-R4)^2)+((S10-S4)^2)+((T10-T4)^2)+((U10-U4)^2)+((V10-V4)^2)+((W10-W4)^2)+((X10-X4)^2)+((Y10-Y4)^2)+((Z10-Z4)^2)+((AA10-AA4)^2)+((AB10-AB4)^2)+((AC10-AC4)^2)+((AD10-AD4)^2)+((AE10-AE4)^2)+((AF10-AF4)^2)+((AG10-AG4)^2)+((AH10-AH4)^2)+((AI10-AI4)^2)+((AJ10-AJ4)^2)</f>
+        <f t="shared" si="3"/>
         <v>4463.4208626741301</v>
       </c>
       <c r="AO10">
@@ -11131,135 +11131,135 @@
         <v>49</v>
       </c>
       <c r="D11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*D$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>99.858724686362095</v>
       </c>
       <c r="E11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*E$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>96.539889250906342</v>
       </c>
       <c r="F11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*F$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>93.224601066782185</v>
       </c>
       <c r="G11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*G$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>87.001203704911816</v>
       </c>
       <c r="H11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*H$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>76.011467929985571</v>
       </c>
       <c r="I11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*I$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>66.681641619715592</v>
       </c>
       <c r="J11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*J$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>58.729071052358449</v>
       </c>
       <c r="K11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*K$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>51.923943181587752</v>
       </c>
       <c r="L11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*L$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>46.078619613299246</v>
       </c>
       <c r="M11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*M$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>41.039268656869147</v>
       </c>
       <c r="N11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*N$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>36.679271406735012</v>
       </c>
       <c r="O11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*O$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>32.894003462482551</v>
       </c>
       <c r="P11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*P$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>29.596688033747899</v>
       </c>
       <c r="Q11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*Q$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>26.715087032530509</v>
       </c>
       <c r="R11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*R$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>24.188850330377335</v>
       </c>
       <c r="S11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*S$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>21.967384045959811</v>
       </c>
       <c r="T11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*T$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>20.008129763511583</v>
       </c>
       <c r="U11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*U$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>18.275170354775423</v>
       </c>
       <c r="V11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*V$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>16.738096361412548</v>
       </c>
       <c r="W11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*W$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>15.371081014928215</v>
       </c>
       <c r="X11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*X$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>14.152122918459536</v>
       </c>
       <c r="Y11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*Y$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>13.06242393489824</v>
       </c>
       <c r="Z11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*Z$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>12.085876481888807</v>
       </c>
       <c r="AA11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AA$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>11.208639653212291</v>
       </c>
       <c r="AB11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AB$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>10.418787692938118</v>
       </c>
       <c r="AC11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AC$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>9.7060175918381884</v>
       </c>
       <c r="AD11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AD$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>9.0614051453803679</v>
       </c>
       <c r="AE11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AE$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>8.4772008557747434</v>
       </c>
       <c r="AF11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AF$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>7.9466586903123302</v>
       </c>
       <c r="AG11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AG$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>7.4638920124316295</v>
       </c>
       <c r="AH11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AH$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>7.0237520488933658</v>
       </c>
       <c r="AI11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AI$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>6.6217250994652765</v>
       </c>
       <c r="AJ11" s="2">
-        <f>$AK11 * (10^(($AO11*(EXP(-$AL11*$AK11*AJ$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>6.2538453763798918</v>
       </c>
       <c r="AK11">
@@ -11273,7 +11273,7 @@
         <v>0.93226835990424284</v>
       </c>
       <c r="AN11" s="2">
-        <f>((D11-D5)^2)+((E11-E5)^2)+((F11-F5)^2)+((G11-G5)^2)+((H11-H5)^2)+((I11-I5)^2)+((J11-J5)^2)+((K11-K5)^2)+((L11-L5)^2)+((M11-M5)^2)+((N11-N5)^2)+((O11-O5)^2)+((P11-P5)^2)+((Q11-Q5)^2)+((R11-R5)^2)+((S11-S5)^2)+((T11-T5)^2)+((U11-U5)^2)+((V11-V5)^2)+((W11-W5)^2)+((X11-X5)^2)+((Y11-Y5)^2)+((Z11-Z5)^2)+((AA11-AA5)^2)+((AB11-AB5)^2)+((AC11-AC5)^2)+((AD11-AD5)^2)+((AE11-AE5)^2)+((AF11-AF5)^2)+((AG11-AG5)^2)+((AH11-AH5)^2)+((AI11-AI5)^2)+((AJ11-AJ5)^2)</f>
+        <f t="shared" si="3"/>
         <v>1881.0532754414776</v>
       </c>
       <c r="AO11">
@@ -11291,135 +11291,135 @@
         <v>50</v>
       </c>
       <c r="D12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*D$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>99.861960976815581</v>
       </c>
       <c r="E12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*E$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>96.617569813353271</v>
       </c>
       <c r="F12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*F$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>93.373551826978485</v>
       </c>
       <c r="G12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*G$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>87.275243081121431</v>
       </c>
       <c r="H12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*H$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>76.476687228648615</v>
       </c>
       <c r="I12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*I$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>67.27634213888723</v>
       </c>
       <c r="J12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*J$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>59.407444839378321</v>
       </c>
       <c r="K12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*K$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>52.652130962005174</v>
       </c>
       <c r="L12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*L$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>46.83175389306907</v>
       </c>
       <c r="M12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*M$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>41.799250250235957</v>
       </c>
       <c r="N12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*N$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>37.433093767296072</v>
       </c>
       <c r="O12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*O$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>33.632487439506768</v>
       </c>
       <c r="P12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*P$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>30.313525017014886</v>
       </c>
       <c r="Q12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*Q$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>27.406114438824741</v>
       </c>
       <c r="R12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*R$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>24.851502569613736</v>
       </c>
       <c r="S12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*S$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>22.600276317875132</v>
       </c>
       <c r="T12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*T$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>20.61074260217632</v>
       </c>
       <c r="U12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*U$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>18.84761071983079</v>
       </c>
       <c r="V12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*V$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>17.280916972942684</v>
       </c>
       <c r="W12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*W$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>15.885144056065975</v>
       </c>
       <c r="X12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*X$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>14.638497562745394</v>
       </c>
       <c r="Y12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*Y$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>13.522309671551056</v>
       </c>
       <c r="Z12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*Z$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>12.520546116704773</v>
       </c>
       <c r="AA12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AA$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>11.619397308043723</v>
       </c>
       <c r="AB12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AB$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>10.806938225967599</v>
       </c>
       <c r="AC12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AC$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>10.072844698806723</v>
       </c>
       <c r="AD12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AD$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>9.4081560419648156</v>
       </c>
       <c r="AE12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AE$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>8.8050759310850193</v>
       </c>
       <c r="AF12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AF$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>8.256804896892417</v>
       </c>
       <c r="AG12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AG$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>7.7573990463253883</v>
       </c>
       <c r="AH12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AH$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>7.3016505948253227</v>
       </c>
       <c r="AI12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AI$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>6.8849865865942554</v>
       </c>
       <c r="AJ12" s="2">
-        <f>$AK12 * (10^(($AO12*(EXP(-$AL12*$AK12*AJ$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>6.5033828212917664</v>
       </c>
       <c r="AK12">
@@ -11433,7 +11433,7 @@
         <v>0.75553847660236773</v>
       </c>
       <c r="AN12" s="2">
-        <f>((D12-D6)^2)+((E12-E6)^2)+((F12-F6)^2)+((G12-G6)^2)+((H12-H6)^2)+((I12-I6)^2)+((J12-J6)^2)+((K12-K6)^2)+((L12-L6)^2)+((M12-M6)^2)+((N12-N6)^2)+((O12-O6)^2)+((P12-P6)^2)+((Q12-Q6)^2)+((R12-R6)^2)+((S12-S6)^2)+((T12-T6)^2)+((U12-U6)^2)+((V12-V6)^2)+((W12-W6)^2)+((X12-X6)^2)+((Y12-Y6)^2)+((Z12-Z6)^2)+((AA12-AA6)^2)+((AB12-AB6)^2)+((AC12-AC6)^2)+((AD12-AD6)^2)+((AE12-AE6)^2)+((AF12-AF6)^2)+((AG12-AG6)^2)+((AH12-AH6)^2)+((AI12-AI6)^2)+((AJ12-AJ6)^2)</f>
+        <f t="shared" si="3"/>
         <v>6770.883610738927</v>
       </c>
       <c r="AO12">
@@ -11451,135 +11451,135 @@
         <v>51</v>
       </c>
       <c r="D13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*D$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>99.92496183235977</v>
       </c>
       <c r="E13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*E$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>98.144844991722579</v>
       </c>
       <c r="F13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*F$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>96.331457267805646</v>
       </c>
       <c r="G13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*G$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>92.825665398776948</v>
       </c>
       <c r="H13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*H$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>86.269819936095985</v>
       </c>
       <c r="I13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*I$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>80.271972882095639</v>
       </c>
       <c r="J13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*J$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>74.778180604136821</v>
       </c>
       <c r="K13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*K$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>69.740263681990541</v>
       </c>
       <c r="L13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*L$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>65.115137643060208</v>
       </c>
       <c r="M13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*M$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>60.864227132838231</v>
       </c>
       <c r="N13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*N$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>56.952952450117401</v>
       </c>
       <c r="O13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*O$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>53.350278929164794</v>
       </c>
       <c r="P13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*P$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>50.028320974807819</v>
       </c>
       <c r="Q13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*Q$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>46.96199368651012</v>
       </c>
       <c r="R13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*R$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>44.128705973677775</v>
       </c>
       <c r="S13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*S$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>41.508089891543065</v>
       </c>
       <c r="T13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*T$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>39.081761635988634</v>
       </c>
       <c r="U13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*U$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>36.833110244263992</v>
       </c>
       <c r="V13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*V$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>34.747110571617462</v>
       </c>
       <c r="W13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*W$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>32.810157564015988</v>
       </c>
       <c r="X13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*X$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>31.009919235014266</v>
       </c>
       <c r="Y13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*Y$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>29.335206089493216</v>
       </c>
       <c r="Z13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*Z$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>27.775855026081942</v>
       </c>
       <c r="AA13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AA$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>26.322626000114983</v>
       </c>
       <c r="AB13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AB$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>24.967109945498407</v>
       </c>
       <c r="AC13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AC$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>23.70164664157971</v>
       </c>
       <c r="AD13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AD$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>22.5192513740617</v>
       </c>
       <c r="AE13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AE$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>21.4135493806039</v>
       </c>
       <c r="AF13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AF$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>20.37871719495466</v>
       </c>
       <c r="AG13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AG$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>19.409430110766106</v>
       </c>
       <c r="AH13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AH$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>18.50081507981756</v>
       </c>
       <c r="AI13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AI$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>17.648408441059896</v>
       </c>
       <c r="AJ13" s="2">
-        <f>$AK13 * (10^(($AO13*(EXP(-$AL13*$AK13*AJ$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>16.848117948281267</v>
       </c>
       <c r="AK13">
@@ -11589,11 +11589,11 @@
         <v>1.6298023896461607E-6</v>
       </c>
       <c r="AM13" s="2">
-        <f t="shared" ref="AM12:AM14" si="0">1-(AN13/DEVSQ(D13:AJ13))</f>
+        <f t="shared" ref="AM13:AM14" si="4">1-(AN13/DEVSQ(D13:AJ13))</f>
         <v>0.82681133860289158</v>
       </c>
       <c r="AN13" s="2">
-        <f>((D13-D7)^2)+((E13-E7)^2)+((F13-F7)^2)+((G13-G7)^2)+((H13-H7)^2)+((I13-I7)^2)+((J13-J7)^2)+((K13-K7)^2)+((L13-L7)^2)+((M13-M7)^2)+((N13-N7)^2)+((O13-O7)^2)+((P13-P7)^2)+((Q13-Q7)^2)+((R13-R7)^2)+((S13-S7)^2)+((T13-T7)^2)+((U13-U7)^2)+((V13-V7)^2)+((W13-W7)^2)+((X13-X7)^2)+((Y13-Y7)^2)+((Z13-Z7)^2)+((AA13-AA7)^2)+((AB13-AB7)^2)+((AC13-AC7)^2)+((AD13-AD7)^2)+((AE13-AE7)^2)+((AF13-AF7)^2)+((AG13-AG7)^2)+((AH13-AH7)^2)+((AI13-AI7)^2)+((AJ13-AJ7)^2)</f>
+        <f t="shared" si="3"/>
         <v>3950.4934789492077</v>
       </c>
       <c r="AO13">
@@ -11611,135 +11611,135 @@
         <v>52</v>
       </c>
       <c r="D14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*D$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>99.930990485665433</v>
       </c>
       <c r="E14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*E$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>98.292021747994667</v>
       </c>
       <c r="F14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*F$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>96.619441844517311</v>
       </c>
       <c r="G14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*G$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>93.377143185865066</v>
       </c>
       <c r="H14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*H$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>87.281856888960405</v>
       </c>
       <c r="I14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*I$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>81.666434306606604</v>
       </c>
       <c r="J14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*J$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>76.487936125291014</v>
       </c>
       <c r="K14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*K$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>71.707672849454397</v>
       </c>
       <c r="L14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*L$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>67.290747491698994</v>
       </c>
       <c r="M14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*M$2)-1))))</f>
+        <f t="shared" si="0"/>
         <v>63.205651131348084</v>
       </c>
       <c r="N14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*N$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>59.423904832789916</v>
       </c>
       <c r="O14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*O$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>55.919742262467935</v>
       </c>
       <c r="P14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*P$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>52.669828074753632</v>
       </c>
       <c r="Q14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*Q$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>49.65300776889611</v>
       </c>
       <c r="R14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*R$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>46.850085265942546</v>
       </c>
       <c r="S14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*S$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>44.243624928013119</v>
       </c>
       <c r="T14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*T$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>41.817775152866986</v>
       </c>
       <c r="U14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*U$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>39.558111033081616</v>
       </c>
       <c r="V14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*V$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>37.451493878876853</v>
       </c>
       <c r="W14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*W$2)-1))))</f>
+        <f t="shared" si="1"/>
         <v>35.48594567306175</v>
       </c>
       <c r="X14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*X$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>33.65053676125266</v>
       </c>
       <c r="Y14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*Y$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>31.935285285117562</v>
       </c>
       <c r="Z14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*Z$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>30.331067044984316</v>
       </c>
       <c r="AA14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AA$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>28.829534634185006</v>
       </c>
       <c r="AB14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AB$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>27.423044823982472</v>
       </c>
       <c r="AC14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AC$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>26.104593297415263</v>
       </c>
       <c r="AD14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AD$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>24.867755935122453</v>
       </c>
       <c r="AE14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AE$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>23.70663594808801</v>
       </c>
       <c r="AF14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AF$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>22.615816232931227</v>
       </c>
       <c r="AG14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AG$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>21.590316396297709</v>
       </c>
       <c r="AH14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AH$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>20.625553957317528</v>
       </c>
       <c r="AI14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AI$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>19.71730929206538</v>
       </c>
       <c r="AJ14" s="4">
-        <f>$AK14 * (10^(($AO14*(EXP(-$AL14*$AK14*AJ$2)-1))))</f>
+        <f t="shared" si="2"/>
         <v>18.861693932419648</v>
       </c>
       <c r="AK14" s="3">
@@ -11749,11 +11749,11 @@
         <v>1.4991521996876805E-6</v>
       </c>
       <c r="AM14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.81124151712492298</v>
       </c>
       <c r="AN14" s="4">
-        <f>((D14-D8)^2)+((E14-E8)^2)+((F14-F8)^2)+((G14-G8)^2)+((H14-H8)^2)+((I14-I8)^2)+((J14-J8)^2)+((K14-K8)^2)+((L14-L8)^2)+((M14-M8)^2)+((N14-N8)^2)+((O14-O8)^2)+((P14-P8)^2)+((Q14-Q8)^2)+((R14-R8)^2)+((S14-S8)^2)+((T14-T8)^2)+((U14-U8)^2)+((V14-V8)^2)+((W14-W8)^2)+((X14-X8)^2)+((Y14-Y8)^2)+((Z14-Z8)^2)+((AA14-AA8)^2)+((AB14-AB8)^2)+((AC14-AC8)^2)+((AD14-AD8)^2)+((AE14-AE8)^2)+((AF14-AF8)^2)+((AG14-AG8)^2)+((AH14-AH8)^2)+((AI14-AI8)^2)+((AJ14-AJ8)^2)</f>
+        <f t="shared" si="3"/>
         <v>4107.9661701457353</v>
       </c>
       <c r="AO14" s="3">
@@ -12518,135 +12518,135 @@
         <v>47</v>
       </c>
       <c r="D21" s="2">
-        <f t="shared" ref="D21:D26" si="1">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*D$2)-1))))</f>
+        <f t="shared" ref="D21:D26" si="5">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*D$2)-1))))</f>
         <v>99.924326158897017</v>
       </c>
       <c r="E21" s="2">
-        <f t="shared" ref="E21:S26" si="2">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*E$2)-1))))</f>
+        <f t="shared" ref="E21:S26" si="6">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*E$2)-1))))</f>
         <v>98.128893106551288</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>96.300256855417274</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>92.766019374729709</v>
       </c>
       <c r="H21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>86.160772428094305</v>
       </c>
       <c r="I21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>80.122283288967367</v>
       </c>
       <c r="J21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>74.595321911313832</v>
       </c>
       <c r="K21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>69.530606852786974</v>
       </c>
       <c r="L21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>64.884109154755919</v>
       </c>
       <c r="M21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>60.616443684363396</v>
       </c>
       <c r="N21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>56.692336243762689</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>53.080156404580826</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>49.751507432964615</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>46.680865870480503</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>43.845264360650866</v>
       </c>
       <c r="S21" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>41.224012186868627</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" ref="T21:AI26" si="3">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*T$2)-1))))</f>
+        <f t="shared" ref="T21:AI26" si="7">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*T$2)-1))))</f>
         <v>38.798448737399113</v>
       </c>
       <c r="U21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>36.551725756139724</v>
       </c>
       <c r="V21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>34.468614789763393</v>
       </c>
       <c r="W21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>32.535336716325489</v>
       </c>
       <c r="X21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30.739410648773895</v>
       </c>
       <c r="Y21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.06951985872746</v>
       </c>
       <c r="Z21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>27.515392669559059</v>
       </c>
       <c r="AA21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>26.067696530180861</v>
       </c>
       <c r="AB21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.717943707877609</v>
       </c>
       <c r="AC21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.458407235089865</v>
       </c>
       <c r="AD21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.282045915485512</v>
       </c>
       <c r="AE21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.182437342621185</v>
       </c>
       <c r="AF21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.153718013100271</v>
       </c>
       <c r="AG21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.190529728040353</v>
       </c>
       <c r="AH21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.287971574152799</v>
       </c>
       <c r="AI21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.441556860760254</v>
       </c>
       <c r="AJ21" s="2">
-        <f t="shared" ref="AJ21:AJ26" si="4">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*AJ$2)-1))))</f>
+        <f t="shared" ref="AJ21:AJ25" si="8">$AK21 * (10^(($AO21*(EXP(-$AL21*$AK21*AJ$2)-1))))</f>
         <v>16.647174463314581</v>
       </c>
       <c r="AK21">
@@ -12656,11 +12656,11 @@
         <v>1.6439937638597088E-6</v>
       </c>
       <c r="AM21" s="2">
-        <f t="shared" ref="AM21" si="5">1-(AN21/DEVSQ(D21:AJ21))</f>
+        <f t="shared" ref="AM21" si="9">1-(AN21/DEVSQ(D21:AJ21))</f>
         <v>0.83003398746966028</v>
       </c>
       <c r="AN21" s="2">
-        <f>((D21-D15)^2)+((E21-E15)^2)+((F21-F15)^2)+((G21-G15)^2)+((H21-H15)^2)+((I21-I15)^2)+((J21-J15)^2)+((K21-K15)^2)+((L21-L15)^2)+((M21-M15)^2)+((N21-N15)^2)+((O21-O15)^2)+((P21-P15)^2)+((Q21-Q15)^2)+((R21-R15)^2)+((S21-S15)^2)+((T21-T15)^2)+((U21-U15)^2)+((V21-V15)^2)+((W21-W15)^2)+((X21-X15)^2)+((Y21-Y15)^2)+((Z21-Z15)^2)+((AA21-AA15)^2)+((AB21-AB15)^2)+((AC21-AC15)^2)+((AD21-AD15)^2)+((AE21-AE15)^2)+((AF21-AF15)^2)+((AG21-AG15)^2)+((AH21-AH15)^2)+((AI21-AI15)^2)+((AJ21-AJ15)^2)</f>
+        <f t="shared" ref="AN21:AN26" si="10">((D21-D15)^2)+((E21-E15)^2)+((F21-F15)^2)+((G21-G15)^2)+((H21-H15)^2)+((I21-I15)^2)+((J21-J15)^2)+((K21-K15)^2)+((L21-L15)^2)+((M21-M15)^2)+((N21-N15)^2)+((O21-O15)^2)+((P21-P15)^2)+((Q21-Q15)^2)+((R21-R15)^2)+((S21-S15)^2)+((T21-T15)^2)+((U21-U15)^2)+((V21-V15)^2)+((W21-W15)^2)+((X21-X15)^2)+((Y21-Y15)^2)+((Z21-Z15)^2)+((AA21-AA15)^2)+((AB21-AB15)^2)+((AC21-AC15)^2)+((AD21-AD15)^2)+((AE21-AE15)^2)+((AF21-AF15)^2)+((AG21-AG15)^2)+((AH21-AH15)^2)+((AI21-AI15)^2)+((AJ21-AJ15)^2)</f>
         <v>3894.7785329694138</v>
       </c>
       <c r="AO21">
@@ -12678,131 +12678,131 @@
         <v>48</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>99.847496371347148</v>
       </c>
       <c r="E22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>96.270942344892575</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>92.710014640951243</v>
       </c>
       <c r="G22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>86.058471435124119</v>
       </c>
       <c r="H22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>74.424031419236726</v>
       </c>
       <c r="I22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>64.667992293928549</v>
       </c>
       <c r="J22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>56.448854745851293</v>
       </c>
       <c r="K22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>49.493207155605759</v>
       </c>
       <c r="L22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>43.581082321982933</v>
       </c>
       <c r="M22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>38.534672607317724</v>
       </c>
       <c r="N22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>34.209588989511353</v>
       </c>
       <c r="O22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>30.488057048665539</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>27.273595185851132</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>24.486832688982219</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>22.062208542448627</v>
       </c>
       <c r="S22" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>19.945353944365273</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.091007982069286</v>
       </c>
       <c r="U22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.461350902706492</v>
       </c>
       <c r="V22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.024665871013116</v>
       </c>
       <c r="W22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13.754260203070411</v>
       </c>
       <c r="X22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.627592399799898</v>
       </c>
       <c r="Y22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11.625563056795077</v>
       </c>
       <c r="Z22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.731936773037006</v>
       </c>
       <c r="AA22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.9328691726024001</v>
       </c>
       <c r="AB22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.2165185792035906</v>
       </c>
       <c r="AC22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>8.5727261107120523</v>
       </c>
       <c r="AD22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.9927512671837011</v>
       </c>
       <c r="AE22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>7.4690526817483507</v>
       </c>
       <c r="AF22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.995105749266739</v>
       </c>
       <c r="AG22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.5652504653749686</v>
       </c>
       <c r="AH22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>6.174564092415733</v>
       </c>
       <c r="AI22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>5.8187542911988936</v>
       </c>
       <c r="AJ22" s="2">
@@ -12820,7 +12820,7 @@
         <v>0.97834961602072101</v>
       </c>
       <c r="AN22" s="2">
-        <f>((D22-D16)^2)+((E22-E16)^2)+((F22-F16)^2)+((G22-G16)^2)+((H22-H16)^2)+((I22-I16)^2)+((J22-J16)^2)+((K22-K16)^2)+((L22-L16)^2)+((M22-M16)^2)+((N22-N16)^2)+((O22-O16)^2)+((P22-P16)^2)+((Q22-Q16)^2)+((R22-R16)^2)+((S22-S16)^2)+((T22-T16)^2)+((U22-U16)^2)+((V22-V16)^2)+((W22-W16)^2)+((X22-X16)^2)+((Y22-Y16)^2)+((Z22-Z16)^2)+((AA22-AA16)^2)+((AB22-AB16)^2)+((AC22-AC16)^2)+((AD22-AD16)^2)+((AE22-AE16)^2)+((AF22-AF16)^2)+((AG22-AG16)^2)+((AH22-AH16)^2)+((AI22-AI16)^2)+((AJ22-AJ16)^2)</f>
+        <f t="shared" si="10"/>
         <v>605.40036775497833</v>
       </c>
       <c r="AO22">
@@ -12838,135 +12838,135 @@
         <v>49</v>
       </c>
       <c r="D23" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>99.886315725914699</v>
       </c>
       <c r="E23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>97.204507092653799</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>94.503657523416038</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>89.371411976613956</v>
       </c>
       <c r="H23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>80.091794830751709</v>
       </c>
       <c r="I23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>71.967955344757087</v>
       </c>
       <c r="J23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>64.837115671860289</v>
       </c>
       <c r="K23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>58.561735405654318</v>
       </c>
       <c r="L23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>53.02527600361865</v>
       </c>
       <c r="M23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>48.128725767419354</v>
       </c>
       <c r="N23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>43.787740517063341</v>
       </c>
       <c r="O23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>39.930284169313069</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>36.494676388566852</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>33.427972663094884</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>30.684616607105223</v>
       </c>
       <c r="S23" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>28.225315801724015</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>26.01610168858144</v>
       </c>
       <c r="U23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.027541403635965</v>
       </c>
       <c r="V23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.234075365386005</v>
       </c>
       <c r="W23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.613459207936515</v>
       </c>
       <c r="X23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.146292509132671</v>
       </c>
       <c r="Y23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.815619891299932</v>
       </c>
       <c r="Z23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.606592612612584</v>
       </c>
       <c r="AA23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.506180836142178</v>
       </c>
       <c r="AB23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14.502928452924237</v>
       </c>
       <c r="AC23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13.586743718016526</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>12.748720092902387</v>
       </c>
       <c r="AE23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11.980982620498699</v>
       </c>
       <c r="AF23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>11.276555928029508</v>
       </c>
       <c r="AG23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.629250588367608</v>
       </c>
       <c r="AH23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>10.033565096538025</v>
       </c>
       <c r="AI23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>9.4846011546639666</v>
       </c>
       <c r="AJ23" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.9779903217308217</v>
       </c>
       <c r="AK23">
@@ -12980,7 +12980,7 @@
         <v>0.9322850769036628</v>
       </c>
       <c r="AN23" s="2">
-        <f>((D23-D17)^2)+((E23-E17)^2)+((F23-F17)^2)+((G23-G17)^2)+((H23-H17)^2)+((I23-I17)^2)+((J23-J17)^2)+((K23-K17)^2)+((L23-L17)^2)+((M23-M17)^2)+((N23-N17)^2)+((O23-O17)^2)+((P23-P17)^2)+((Q23-Q17)^2)+((R23-R17)^2)+((S23-S17)^2)+((T23-T17)^2)+((U23-U17)^2)+((V23-V17)^2)+((W23-W17)^2)+((X23-X17)^2)+((Y23-Y17)^2)+((Z23-Z17)^2)+((AA23-AA17)^2)+((AB23-AB17)^2)+((AC23-AC17)^2)+((AD23-AD17)^2)+((AE23-AE17)^2)+((AF23-AF17)^2)+((AG23-AG17)^2)+((AH23-AH17)^2)+((AI23-AI17)^2)+((AJ23-AJ17)^2)</f>
+        <f t="shared" si="10"/>
         <v>1810.8554969975194</v>
       </c>
       <c r="AO23">
@@ -12998,135 +12998,135 @@
         <v>50</v>
       </c>
       <c r="D24" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>99.909496812605852</v>
       </c>
       <c r="E24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>97.767036576241367</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>95.594520011771152</v>
       </c>
       <c r="G24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>91.423412448805252</v>
       </c>
       <c r="H24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>83.728462667845363</v>
       </c>
       <c r="I24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>76.812571496907694</v>
       </c>
       <c r="J24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>70.586315422591852</v>
       </c>
       <c r="K24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>64.971597669212088</v>
       </c>
       <c r="L24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>59.900091717772646</v>
       </c>
       <c r="M24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>55.311914145747309</v>
       </c>
       <c r="N24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>51.154490878241823</v>
       </c>
       <c r="O24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>47.381586877221494</v>
       </c>
       <c r="P24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>43.952474201264835</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>40.831217430693194</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>37.986058823548859</v>
       </c>
       <c r="S24" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>35.388888369966395</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>33.014786246356692</v>
       </c>
       <c r="U24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30.841627118384135</v>
       </c>
       <c r="V24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>28.849737369918714</v>
       </c>
       <c r="W24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>27.021597698836953</v>
       </c>
       <c r="X24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>25.341584664750247</v>
       </c>
       <c r="Y24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.795745735481532</v>
       </c>
       <c r="Z24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.371603188895502</v>
       </c>
       <c r="AA24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.057982909694825</v>
       </c>
       <c r="AB24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.84486469784548</v>
       </c>
       <c r="AC24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.723251193638561</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.685052938347646</v>
       </c>
       <c r="AE24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>16.722987440899757</v>
       </c>
       <c r="AF24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.830490419854259</v>
       </c>
       <c r="AG24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>15.0016376445428</v>
       </c>
       <c r="AH24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>14.231076016372086</v>
       </c>
       <c r="AI24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>13.513962716809237</v>
       </c>
       <c r="AJ24" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>12.845911407302758</v>
       </c>
       <c r="AK24">
@@ -13136,11 +13136,11 @@
         <v>1.9663348903904846E-6</v>
       </c>
       <c r="AM24" s="2">
-        <f t="shared" ref="AM24:AM26" si="6">1-(AN24/DEVSQ(D24:AJ24))</f>
+        <f t="shared" ref="AM24:AM25" si="11">1-(AN24/DEVSQ(D24:AJ24))</f>
         <v>0.87308992651531203</v>
       </c>
       <c r="AN24" s="2">
-        <f>((D24-D18)^2)+((E24-E18)^2)+((F24-F18)^2)+((G24-G18)^2)+((H24-H18)^2)+((I24-I18)^2)+((J24-J18)^2)+((K24-K18)^2)+((L24-L18)^2)+((M24-M18)^2)+((N24-N18)^2)+((O24-O18)^2)+((P24-P18)^2)+((Q24-Q18)^2)+((R24-R18)^2)+((S24-S18)^2)+((T24-T18)^2)+((U24-U18)^2)+((V24-V18)^2)+((W24-W18)^2)+((X24-X18)^2)+((Y24-Y18)^2)+((Z24-Z18)^2)+((AA24-AA18)^2)+((AB24-AB18)^2)+((AC24-AC18)^2)+((AD24-AD18)^2)+((AE24-AE18)^2)+((AF24-AF18)^2)+((AG24-AG18)^2)+((AH24-AH18)^2)+((AI24-AI18)^2)+((AJ24-AJ18)^2)</f>
+        <f t="shared" si="10"/>
         <v>3157.4868558669559</v>
       </c>
       <c r="AO24">
@@ -13158,135 +13158,135 @@
         <v>51</v>
       </c>
       <c r="D25" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>99.924326158897017</v>
       </c>
       <c r="E25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>98.128893106551288</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>96.300256855417274</v>
       </c>
       <c r="G25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>92.766019374729709</v>
       </c>
       <c r="H25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>86.160772428094305</v>
       </c>
       <c r="I25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>80.122283288967367</v>
       </c>
       <c r="J25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>74.595321911313832</v>
       </c>
       <c r="K25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>69.530606852786974</v>
       </c>
       <c r="L25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>64.884109154755919</v>
       </c>
       <c r="M25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>60.616443684363396</v>
       </c>
       <c r="N25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>56.692336243762689</v>
       </c>
       <c r="O25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>53.080156404580826</v>
       </c>
       <c r="P25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>49.751507432964615</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>46.680865870480503</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>43.845264360650866</v>
       </c>
       <c r="S25" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>41.224012186868627</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>38.798448737399113</v>
       </c>
       <c r="U25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>36.551725756139724</v>
       </c>
       <c r="V25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>34.468614789763393</v>
       </c>
       <c r="W25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>32.535336716325489</v>
       </c>
       <c r="X25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30.739410648773895</v>
       </c>
       <c r="Y25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.06951985872746</v>
       </c>
       <c r="Z25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>27.515392669559059</v>
       </c>
       <c r="AA25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>26.067696530180861</v>
       </c>
       <c r="AB25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.717943707877609</v>
       </c>
       <c r="AC25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.458407235089865</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.282045915485512</v>
       </c>
       <c r="AE25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.182437342621185</v>
       </c>
       <c r="AF25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>20.153718013100271</v>
       </c>
       <c r="AG25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.190529728040353</v>
       </c>
       <c r="AH25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.287971574152799</v>
       </c>
       <c r="AI25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.441556860760254</v>
       </c>
       <c r="AJ25" s="2">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>16.647174463314581</v>
       </c>
       <c r="AK25">
@@ -13296,11 +13296,11 @@
         <v>1.6439937638597088E-6</v>
       </c>
       <c r="AM25" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>0.83003398746966028</v>
       </c>
       <c r="AN25" s="2">
-        <f>((D25-D19)^2)+((E25-E19)^2)+((F25-F19)^2)+((G25-G19)^2)+((H25-H19)^2)+((I25-I19)^2)+((J25-J19)^2)+((K25-K19)^2)+((L25-L19)^2)+((M25-M19)^2)+((N25-N19)^2)+((O25-O19)^2)+((P25-P19)^2)+((Q25-Q19)^2)+((R25-R19)^2)+((S25-S19)^2)+((T25-T19)^2)+((U25-U19)^2)+((V25-V19)^2)+((W25-W19)^2)+((X25-X19)^2)+((Y25-Y19)^2)+((Z25-Z19)^2)+((AA25-AA19)^2)+((AB25-AB19)^2)+((AC25-AC19)^2)+((AD25-AD19)^2)+((AE25-AE19)^2)+((AF25-AF19)^2)+((AG25-AG19)^2)+((AH25-AH19)^2)+((AI25-AI19)^2)+((AJ25-AJ19)^2)</f>
+        <f t="shared" si="10"/>
         <v>3894.7785329694138</v>
       </c>
       <c r="AO25">
@@ -13318,115 +13318,115 @@
         <v>52</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>99.924326158897017</v>
       </c>
       <c r="E26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>98.128893106551288</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>96.300256855417274</v>
       </c>
       <c r="G26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>92.766019374729709</v>
       </c>
       <c r="H26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>86.160772428094305</v>
       </c>
       <c r="I26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>80.122283288967367</v>
       </c>
       <c r="J26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>74.595321911313832</v>
       </c>
       <c r="K26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>69.530606852786974</v>
       </c>
       <c r="L26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>64.884109154755919</v>
       </c>
       <c r="M26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>60.616443684363396</v>
       </c>
       <c r="N26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>56.692336243762689</v>
       </c>
       <c r="O26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>53.080156404580826</v>
       </c>
       <c r="P26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>49.751507432964615</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>46.680865870480503</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>43.845264360650866</v>
       </c>
       <c r="S26" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>41.224012186868627</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>38.798448737399113</v>
       </c>
       <c r="U26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>36.551725756139724</v>
       </c>
       <c r="V26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>34.468614789763393</v>
       </c>
       <c r="W26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>32.535336716325489</v>
       </c>
       <c r="X26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>30.739410648773895</v>
       </c>
       <c r="Y26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>29.06951985872746</v>
       </c>
       <c r="Z26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>27.515392669559059</v>
       </c>
       <c r="AA26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>26.067696530180861</v>
       </c>
       <c r="AB26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>24.717943707877609</v>
       </c>
       <c r="AC26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>23.458407235089865</v>
       </c>
       <c r="AD26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>22.282045915485512</v>
       </c>
       <c r="AE26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>21.182437342621185</v>
       </c>
       <c r="AF26" s="2">
@@ -13434,15 +13434,15 @@
         <v>20.153718013100271</v>
       </c>
       <c r="AG26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>19.190529728040353</v>
       </c>
       <c r="AH26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>18.287971574152799</v>
       </c>
       <c r="AI26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>17.441556860760254</v>
       </c>
       <c r="AJ26" s="2">
@@ -13460,7 +13460,7 @@
         <v>0.83003398746966028</v>
       </c>
       <c r="AN26" s="2">
-        <f>((D26-D20)^2)+((E26-E20)^2)+((F26-F20)^2)+((G26-G20)^2)+((H26-H20)^2)+((I26-I20)^2)+((J26-J20)^2)+((K26-K20)^2)+((L26-L20)^2)+((M26-M20)^2)+((N26-N20)^2)+((O26-O20)^2)+((P26-P20)^2)+((Q26-Q20)^2)+((R26-R20)^2)+((S26-S20)^2)+((T26-T20)^2)+((U26-U20)^2)+((V26-V20)^2)+((W26-W20)^2)+((X26-X20)^2)+((Y26-Y20)^2)+((Z26-Z20)^2)+((AA26-AA20)^2)+((AB26-AB20)^2)+((AC26-AC20)^2)+((AD26-AD20)^2)+((AE26-AE20)^2)+((AF26-AF20)^2)+((AG26-AG20)^2)+((AH26-AH20)^2)+((AI26-AI20)^2)+((AJ26-AJ20)^2)</f>
+        <f t="shared" si="10"/>
         <v>3894.7785329694138</v>
       </c>
       <c r="AO26">
